--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -575,7 +575,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>44811</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45314</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45301.67922453704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45755</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45377.54726851852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45748</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45678</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>45926.90006944445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121.60543981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>45987</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45971</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44245</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44811</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45979.35256944445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>45742</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44426.64793981481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44943</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45896.86820601852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45908</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>45960</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45008.60878472222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45760.34877314815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45048</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>45786.52827546297</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44371</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45713</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>45104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>45224</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45649</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45168</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45168</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>45821</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>45077</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>45959.57126157408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>45959.56684027778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45971.43178240741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>45979.37598379629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>45399.71412037037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44403</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44377.61104166666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45574.42767361111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44281.79269675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44270.67071759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44287.33261574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44490.38613425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44481.47483796296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44375.39033564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44614</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44670</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44670</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44307</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44350</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44327.47658564815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44509</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44406</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44480</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44238</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44824.53434027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44585.51829861111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44418</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44785.40800925926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44826.68010416667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44862</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44578.47597222222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44516.59703703703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44603</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44483.58295138889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44542.8859375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44494</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44512.70245370371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44404.87505787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44790</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44261</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44530.38055555556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44588</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44588</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44790.47628472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44312</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44237.8550925926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44410.71038194445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44670</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44365</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44279.33400462963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44301.36048611111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44273</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44729.28226851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44271.37226851852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44340.54472222222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44774</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44733</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44371.62743055556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44386.40783564815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44480</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44245</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44463.29439814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44337</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44789</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44377</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44634.69703703704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44340.58002314815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44769.45422453704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44612.86762731482</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44819</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44517</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44270</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44341</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44447.34237268518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44294</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44525.63913194444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44279.64934027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44662</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44564</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44284.44574074074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44817.57988425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44294</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44294</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44676.85248842592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>44305</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>44604</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>44383</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>44476</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>44854</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>44418</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44451.8375</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44823</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44384</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44790.48503472222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44620</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44854.59157407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44266.7240625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44270.49743055556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44722.48768518519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44305.40046296296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44824</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44369</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44742</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44375.38789351852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44386</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44427</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44851.95016203704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44832.67608796297</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44621</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44876.48346064815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44733.43092592592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44609</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>44284.42348379629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>44421</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44278.63479166666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44273</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44612.86554398148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44470.44232638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44466.34726851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44866.81100694444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44634</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44608.50458333334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44817</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>44292</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44588.37998842593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44588</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45632.72635416667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45033.76043981482</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45114.55136574074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45111.48395833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45624.60141203704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45196.57247685185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45617.47570601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44994.40635416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44607</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44903</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>45411.47335648148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44991.89657407408</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44991.30547453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44879.55940972222</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45764.44931712963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45735.56751157407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45054.6750462963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45048.59699074074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45261.44914351852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44910.54231481482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45728.54832175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44693.62822916666</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44981.58834490741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45346.67184027778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45394.66887731481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45732.79925925926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45052</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45147.67096064815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45299.62576388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45588.66457175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45453.36067129629</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45610.59094907407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45623.9525462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44564.62598379629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45552.36759259259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45020</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45607.56773148148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44992.62498842592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45030.71012731481</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45674.71810185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45539.38744212963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45224.64659722222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45237.63225694445</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>45237.64408564815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45533.63056712963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>45761.39600694444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>45434.55831018519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>45434.56398148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>45345.83557870371</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44720.53898148148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44966</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>45482.49870370371</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44243</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>45558.44914351852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44965.4815162037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>45328.38755787037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45309.59487268519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45097.40524305555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44931</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44861</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45300.3794212963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45254.62489583333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>45350.53306712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45063.49936342592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45145</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45485.45778935185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45527.68784722222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45187.60813657408</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45603.74959490741</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45715.44159722222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44992.4255787037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44981.64725694444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>45163.41376157408</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45574.49298611111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45108.703125</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44510.52157407408</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45401.53033564815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44418</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45217.47834490741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44488.35878472222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44918</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45450.51092592593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45884.50613425926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45163</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44988</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45275.41833333333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45168.89298611111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44754</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45635.66409722222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45804.39141203704</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45804.6953587963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45552.36484953704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>45460.62172453704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>45804.708125</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45805.39247685186</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>44769.45805555556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45128.58414351852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45171.96248842592</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45805.52983796296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45804.44519675926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45805</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45650.37370370371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45128.37305555555</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45189</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45540.50098379629</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45891.50216435185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45891.50986111111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45891</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45425.57538194444</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45891.50525462963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45891</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45475.48303240741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45735.58024305556</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45232</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45041.63380787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45897.64208333333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20484,7 +20484,7 @@
         <v>45897.63520833333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>45002</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>45818.58993055556</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>45482.54844907407</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45898.58861111111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>44867</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>45818.58769675926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>45901.6327662037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>45897.88836805556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>45901.63219907408</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>45818.595625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45818.59261574074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45897.88706018519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45897.89737268518</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45818.5862037037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>45236</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45845</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>45121</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>45819.61060185185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44967.44255787037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44903.33363425926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45174.31395833333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44943.57309027778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>45820.33708333333</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45820.34128472222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>45902.47164351852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>45317.40372685185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44857.65989583333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44965</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>45359.44837962963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>45820.33930555556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44944.71386574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44944.72100694444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>45467.74417824074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>45446.36482638889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44312</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45000.47998842593</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>45908.57716435185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>45440.28329861111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>45908</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>45908</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>45495</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45554.63225694445</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45825.58672453704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>45257.67958333333</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45845.42015046296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45825.5796875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23198,7 +23198,7 @@
         <v>45911.47138888889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44595.583125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45911.67798611111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>44999.35858796296</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45915.56430555556</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45301</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44789</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>45915.55950231481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>45827</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>45827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>45916.7103587963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23825,7 +23825,7 @@
         <v>44958.61047453704</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>45917.67054398148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>45916.41019675926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>45219.40528935185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>45903.38800925926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>45567</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45623.95947916667</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>45831</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>45041</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24395,7 +24395,7 @@
         <v>45919.42387731482</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         <v>45434.55471064815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>45434.56291666667</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>45201.39996527778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>45921.95611111111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45086.63334490741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45921.96395833333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>45924.57697916667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>45833.64563657407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>45833.64814814815</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>45925.50075231482</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44599</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>45832.46146990741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25146,7 +25146,7 @@
         <v>45833.64237268519</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>44944.73487268519</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45330</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>45330</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>45832.34540509259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>45925.49670138889</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>45250.5278587963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>45834.65040509259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45070</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45225.60192129629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45929.3672337963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45709.62280092593</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45700.68289351852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44539</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45835.44709490741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45835.48267361111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45835.48445601852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45835.48862268519</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45299.47513888889</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45834.64667824074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44910</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45835.44732638889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44598.7384837963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45835.36229166666</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45835.45099537037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45835.4924537037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44848.59133101852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45834.65197916667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45559.38876157408</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45930.39769675926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45415.48979166667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44542.90072916666</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45933.60982638889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45932.59597222223</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45749.60487268519</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>45837.77701388889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44984.45895833334</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>45446.36865740741</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>45840.59474537037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>45245.63574074074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45932.58896990741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45841.70569444444</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45841.70868055556</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45732.76936342593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45936.65121527778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45707.3793287037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45936.63373842592</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45934.40527777778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45934.41387731482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45832.46649305556</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45935</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45841.7072337963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44578.32717592592</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>45525.41762731481</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28487,7 +28487,7 @@
         <v>44964.5115162037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28544,7 +28544,7 @@
         <v>45811.45460648148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>45121.58699074074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>45211.52642361111</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>45075.43059027778</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44630</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>45371.45865740741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>45100.4062962963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>45845.43803240741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45845.49414351852</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45820.03976851852</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44795</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>45940.54104166666</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>45280.66769675926</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>45112.33599537037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>45945.50736111111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>45944.45962962963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>45202.4209837963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>45632.36706018518</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>45632.44886574074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>45847.91280092593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>45947.44685185186</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>45245.36174768519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44585.50431712963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>45170</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>45853.87112268519</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>45853.87599537037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>45853.88070601852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>45755.44333333334</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>45858.60641203704</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45858.66019675926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44867</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>44732.3659837963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45635.4874537037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45952.58061342593</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45483.82479166667</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45867.51630787037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45867.63094907408</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45867.64663194444</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45867.56320601852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>45867.68625</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>45867.50792824074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>45769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>45952.58194444444</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31057,7 +31057,7 @@
         <v>45867.69346064814</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>45713.92412037037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>45446.36774305555</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45615.48927083334</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45869.62276620371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45954.44543981482</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45954.42326388889</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45870.51708333333</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45870.52111111111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45729.36868055556</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45954.51412037037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45954.44707175926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45954.45947916667</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>45954.47172453703</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>45954.468125</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>44984</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>44984</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45870.52142361111</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45018</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45959.55577546296</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45870.51958333333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45870.52005787037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45959.58387731481</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45959.56247685185</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45959.55918981481</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45958.60146990741</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45105</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>44788</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45875.45716435185</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45875.47454861111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>44258</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45070.3665625</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45875.42716435185</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45028</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45698.53725694444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45874.57109953704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45456.59289351852</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45481.55984953704</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>44964.50894675926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>45257.70313657408</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45959.55284722222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>45533.60232638889</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>45533.60770833334</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>45001.59209490741</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>45959.5787037037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>45569.44295138889</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45961.43738425926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33751,7 +33751,7 @@
         <v>45961.44951388889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>44879</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>45961.46740740741</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>45960</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45961.4569212963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45475.49018518518</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>44510.60921296296</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34160,7 +34160,7 @@
         <v>44961</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34217,7 +34217,7 @@
         <v>45961.47650462963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34274,7 +34274,7 @@
         <v>45880.38380787037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>45090.38012731481</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         <v>45960</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>45964.62671296296</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>45174</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>45880.51550925926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45091.67936342592</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45964.62486111111</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45881.59877314815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45966.56826388889</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45881</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45646.38200231481</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>45966.64881944445</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>45971</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>44392</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45971</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45971</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45971.43350694444</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45545.49508101852</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>45361.87975694444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44896</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>45887.68759259259</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>45699.44291666667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>45114.49505787037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>45111.48225694444</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
         <v>45111.48636574074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>45098.30535879629</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35885,7 +35885,7 @@
         <v>46020.44902777778</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>46020.41998842593</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35999,7 +35999,7 @@
         <v>46018.67197916667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>46020.43715277778</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36113,7 +36113,7 @@
         <v>45154.49831018518</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>45722.48634259259</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>45481.56722222222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>45453.36854166666</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>44992.34151620371</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36403,7 +36403,7 @@
         <v>44502</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36460,7 +36460,7 @@
         <v>46018.46483796297</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45378.32185185186</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45726.44471064815</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>45377.40043981482</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>45219.69356481481</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>45211.55472222222</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45981</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36864,7 +36864,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>45498.673125</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36978,7 +36978,7 @@
         <v>45985.69509259259</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>45985.68671296296</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37092,7 +37092,7 @@
         <v>45985.69153935185</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>45985.70513888889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>45985.61635416667</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37263,7 +37263,7 @@
         <v>45985.61501157407</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37320,7 +37320,7 @@
         <v>45985.62168981481</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>44825.4336574074</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>45215.60199074074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>45533.55362268518</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>45754.33641203704</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>45415.57682870371</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45985.69008101852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>45187.42854166667</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>46028.69432870371</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37833,7 +37833,7 @@
         <v>45987.36275462963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37890,7 +37890,7 @@
         <v>46028.68663194445</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
         <v>44475</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>44839.4528125</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45987.4243287037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>44875.27736111111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38175,7 +38175,7 @@
         <v>46029.47912037037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38232,7 +38232,7 @@
         <v>45533.54429398148</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38289,7 +38289,7 @@
         <v>44973.43075231482</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>45106.2610300926</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38403,7 +38403,7 @@
         <v>45705.74418981482</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38460,7 +38460,7 @@
         <v>45301.68237268519</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45722.48915509259</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38574,7 +38574,7 @@
         <v>45988.36790509259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>46030.380625</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38693,7 +38693,7 @@
         <v>45106</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38750,7 +38750,7 @@
         <v>45988.36243055556</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>45743.41148148148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>45569.44684027778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38926,7 +38926,7 @@
         <v>45148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38983,7 +38983,7 @@
         <v>45361.90282407407</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>44952.35775462963</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>45548</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>45988.36508101852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>45988.41725694444</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>45394.50028935185</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>45138</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>46034</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>45992.30569444445</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>46034</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>46034.65589120371</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45317</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45384.66917824074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>46035.44689814815</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45698.51711805556</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>45513.55840277778</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>46030</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>45513.56527777778</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>46037.42219907408</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40076,7 +40076,7 @@
         <v>46037.42511574074</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40133,7 +40133,7 @@
         <v>46037.42825231481</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40190,7 +40190,7 @@
         <v>45637.66542824074</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40247,7 +40247,7 @@
         <v>45639.56185185185</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40304,7 +40304,7 @@
         <v>45153.32778935185</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40361,7 +40361,7 @@
         <v>45994.46428240741</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40418,7 +40418,7 @@
         <v>45635.66695601852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40475,7 +40475,7 @@
         <v>45994</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40532,7 +40532,7 @@
         <v>45211.541875</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40589,7 +40589,7 @@
         <v>44890</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40646,7 +40646,7 @@
         <v>44278.54855324074</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40703,7 +40703,7 @@
         <v>45278</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40765,7 +40765,7 @@
         <v>45029</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40822,7 +40822,7 @@
         <v>45588.65545138889</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40879,7 +40879,7 @@
         <v>45699.45671296296</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40936,7 +40936,7 @@
         <v>45086</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40993,7 +40993,7 @@
         <v>45128</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41050,7 +41050,7 @@
         <v>45121.5965162037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41112,7 +41112,7 @@
         <v>45121.59954861111</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41174,7 +41174,7 @@
         <v>45121.6096875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41236,7 +41236,7 @@
         <v>44635</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41293,7 +41293,7 @@
         <v>45343.68038194445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41350,7 +41350,7 @@
         <v>45581.57958333333</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41407,7 +41407,7 @@
         <v>45539.65212962963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>46043.6360300926</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>46043.63940972222</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41578,7 +41578,7 @@
         <v>45301.67736111111</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         <v>44546</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41692,7 +41692,7 @@
         <v>45768.65611111111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41749,7 +41749,7 @@
         <v>44377</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41806,7 +41806,7 @@
         <v>45369.62780092593</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41863,7 +41863,7 @@
         <v>44377.49684027778</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41925,7 +41925,7 @@
         <v>45526.3865625</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>45755.64450231481</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>45518.40657407408</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>46044.34563657407</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>46002.58680555555</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42220,7 +42220,7 @@
         <v>46002.68768518518</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42282,7 +42282,7 @@
         <v>45741.37270833334</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44237</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         <v>45622</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         <v>45574.35809027778</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>45533.61996527778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42572,7 +42572,7 @@
         <v>44588</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42629,7 +42629,7 @@
         <v>46002.58822916666</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42691,7 +42691,7 @@
         <v>45582.41200231481</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42748,7 +42748,7 @@
         <v>46041</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42805,7 +42805,7 @@
         <v>45736.50743055555</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>44833.60123842592</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42919,7 +42919,7 @@
         <v>46041</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42976,7 +42976,7 @@
         <v>44270.39765046296</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43038,7 +43038,7 @@
         <v>44897</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>45498</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>45009.4671875</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43209,7 +43209,7 @@
         <v>44992</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44999.86172453704</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43323,7 +43323,7 @@
         <v>44999.8625</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43380,7 +43380,7 @@
         <v>45148</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43437,7 +43437,7 @@
         <v>44453.56578703703</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43494,7 +43494,7 @@
         <v>45581.57016203704</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43551,7 +43551,7 @@
         <v>45581.58418981481</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43608,7 +43608,7 @@
         <v>45495</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43665,7 +43665,7 @@
         <v>45618.56787037037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>45699.45392361111</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>45259.51916666667</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43841,7 +43841,7 @@
         <v>45259.52020833334</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>45562.46342592593</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>44517</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>45533.38870370371</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44131,7 +44131,7 @@
         <v>44992</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44193,7 +44193,7 @@
         <v>45658.78774305555</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44250,7 +44250,7 @@
         <v>45121.61318287037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44312,7 +44312,7 @@
         <v>46057.38412037037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44369,7 +44369,7 @@
         <v>45275.32266203704</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44426,7 +44426,7 @@
         <v>46014.62724537037</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44483,7 +44483,7 @@
         <v>44746.38834490741</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44540,7 +44540,7 @@
         <v>44598</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44597,7 +44597,7 @@
         <v>45079.87827546296</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44654,7 +44654,7 @@
         <v>46057.69520833333</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44711,7 +44711,7 @@
         <v>46003</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44768,7 +44768,7 @@
         <v>44579.62225694444</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44825,7 +44825,7 @@
         <v>44495</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44882,7 +44882,7 @@
         <v>45090.89653935185</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44939,7 +44939,7 @@
         <v>45090.89880787037</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44996,7 +44996,7 @@
         <v>44638.55256944444</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45053,7 +45053,7 @@
         <v>44600</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45110,7 +45110,7 @@
         <v>44451</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45167,7 +45167,7 @@
         <v>45245.5735300926</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45224,7 +45224,7 @@
         <v>45415.47848379629</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45281,7 +45281,7 @@
         <v>45621.46103009259</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45338,7 +45338,7 @@
         <v>44861.52505787037</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45395,7 +45395,7 @@
         <v>45308.61152777778</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45452,7 +45452,7 @@
         <v>45063.508125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45509,7 +45509,7 @@
         <v>44895.62296296296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45566,7 +45566,7 @@
         <v>44452</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45623,7 +45623,7 @@
         <v>45009</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45680,7 +45680,7 @@
         <v>45379</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45737,7 +45737,7 @@
         <v>44820</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45794,7 +45794,7 @@
         <v>45215.5959375</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45851,7 +45851,7 @@
         <v>45215.59743055556</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>45351.6062962963</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45965,7 +45965,7 @@
         <v>45674.74094907408</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46022,7 +46022,7 @@
         <v>45539.66027777778</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46079,7 +46079,7 @@
         <v>45565.40657407408</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46136,7 +46136,7 @@
         <v>45482.54108796296</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46193,7 +46193,7 @@
         <v>45195.58452546296</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46250,7 +46250,7 @@
         <v>45026.82216435186</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46307,7 +46307,7 @@
         <v>45266.32614583334</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46364,7 +46364,7 @@
         <v>44440</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45554.62944444444</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45632.37459490741</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46535,7 +46535,7 @@
         <v>44803.59118055556</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46592,7 +46592,7 @@
         <v>45567.42011574074</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46649,7 +46649,7 @@
         <v>44587.48847222222</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         <v>45110.4275</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46763,7 +46763,7 @@
         <v>45503.5658912037</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46820,7 +46820,7 @@
         <v>44956</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46882,7 +46882,7 @@
         <v>44270.38002314815</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46944,7 +46944,7 @@
         <v>44596</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>45113.41633101852</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>45666</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>44918.50106481482</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47172,7 +47172,7 @@
         <v>45027.59450231482</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45224.6515162037</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45377</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>45106.25025462963</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45114.47895833333</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>45349.54434027777</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47524,7 +47524,7 @@
         <v>45334.78826388889</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47581,7 +47581,7 @@
         <v>45114.58148148148</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47638,7 +47638,7 @@
         <v>44600</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45581.57333333333</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47752,7 +47752,7 @@
         <v>45359.45038194444</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47809,7 +47809,7 @@
         <v>44895.46524305556</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47866,7 +47866,7 @@
         <v>44587</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>45569.45017361111</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47980,7 +47980,7 @@
         <v>45569.47494212963</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48037,7 +48037,7 @@
         <v>45588.67070601852</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48094,7 +48094,7 @@
         <v>45355.54138888889</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>44949</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>45660</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>45090</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>44467.83386574074</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>44340</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         <v>44790.49040509259</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48493,7 +48493,7 @@
         <v>44784.42528935185</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48550,7 +48550,7 @@
         <v>44935</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48607,7 +48607,7 @@
         <v>44852</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48664,7 +48664,7 @@
         <v>45100.85270833333</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48721,7 +48721,7 @@
         <v>45517.8162037037</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>44578.62943287037</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>44994.46908564815</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44900.57393518519</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>44440.60415509259</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>45201</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>44966</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>45323.53744212963</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45308.59001157407</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>45111.30824074074</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45086.63194444445</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45196</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49405,7 +49405,7 @@
         <v>45320.89128472222</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49462,7 +49462,7 @@
         <v>44987.54104166666</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49519,7 +49519,7 @@
         <v>45208</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>45001.43854166667</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49633,7 +49633,7 @@
         <v>44585.51060185185</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49690,7 +49690,7 @@
         <v>45260.4716550926</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49747,7 +49747,7 @@
         <v>44943.62954861111</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49804,7 +49804,7 @@
         <v>45371.36359953704</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49861,7 +49861,7 @@
         <v>44938</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49923,7 +49923,7 @@
         <v>44949</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49985,7 +49985,7 @@
         <v>45020</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50042,7 +50042,7 @@
         <v>45568.30189814815</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50099,7 +50099,7 @@
         <v>44894.49538194444</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50156,7 +50156,7 @@
         <v>44790.45876157407</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>44790.49523148148</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>45211.43555555555</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50327,7 +50327,7 @@
         <v>44893</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50384,7 +50384,7 @@
         <v>45174.40454861111</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>45713.45311342592</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50498,7 +50498,7 @@
         <v>44994.42113425926</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50555,7 +50555,7 @@
         <v>45176.72427083334</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50612,7 +50612,7 @@
         <v>45759.38987268518</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>45061</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50731,7 +50731,7 @@
         <v>44310</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>45096.45247685185</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50845,7 +50845,7 @@
         <v>45391.41310185185</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50902,7 +50902,7 @@
         <v>45163.63621527778</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50964,7 +50964,7 @@
         <v>45093.62777777778</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         <v>45630.35827546296</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51083,7 +51083,7 @@
         <v>44431.84840277778</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51140,7 +51140,7 @@
         <v>45671.46746527778</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51197,7 +51197,7 @@
         <v>45110.4184375</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51254,7 +51254,7 @@
         <v>45182.78834490741</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51311,7 +51311,7 @@
         <v>45761.4437962963</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51368,7 +51368,7 @@
         <v>45128.9325</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51425,7 +51425,7 @@
         <v>45128.93540509259</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51482,7 +51482,7 @@
         <v>44999.36081018519</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51539,7 +51539,7 @@
         <v>45567</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51596,7 +51596,7 @@
         <v>44466.34962962963</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51653,7 +51653,7 @@
         <v>45530.33202546297</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51710,7 +51710,7 @@
         <v>44910.41346064815</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51767,7 +51767,7 @@
         <v>45483.82834490741</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51824,7 +51824,7 @@
         <v>45698.52806712963</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51881,7 +51881,7 @@
         <v>45271.66576388889</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51938,7 +51938,7 @@
         <v>45224.60075231481</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52000,7 +52000,7 @@
         <v>45113.56574074074</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52057,7 +52057,7 @@
         <v>44540</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52114,7 +52114,7 @@
         <v>44916.55414351852</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52171,7 +52171,7 @@
         <v>45149.60917824074</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52228,7 +52228,7 @@
         <v>45482.52887731481</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52285,7 +52285,7 @@
         <v>44879.62173611111</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52342,7 +52342,7 @@
         <v>45700.68672453704</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52399,7 +52399,7 @@
         <v>44603</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52456,7 +52456,7 @@
         <v>45147.67172453704</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52513,7 +52513,7 @@
         <v>44959.66407407408</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52570,7 +52570,7 @@
         <v>45171.77335648148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>45698.53336805556</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>45113.43921296296</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52741,7 +52741,7 @@
         <v>44967.45122685185</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52798,7 +52798,7 @@
         <v>44963.44769675926</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52855,7 +52855,7 @@
         <v>45720.44217592593</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>44909</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>45747.43196759259</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         <v>45747.42633101852</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         <v>45747.42958333333</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53140,7 +53140,7 @@
         <v>45699.60055555555</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53197,7 +53197,7 @@
         <v>44784.62724537037</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53254,7 +53254,7 @@
         <v>45243.84869212963</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53311,7 +53311,7 @@
         <v>44643</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53368,7 +53368,7 @@
         <v>45761.35990740741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53425,7 +53425,7 @@
         <v>44964.44356481481</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53482,7 +53482,7 @@
         <v>45238.4328587963</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53539,7 +53539,7 @@
         <v>44893</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53596,7 +53596,7 @@
         <v>45658.80232638889</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53653,7 +53653,7 @@
         <v>45658.80827546296</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53710,7 +53710,7 @@
         <v>45572.48293981481</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53767,7 +53767,7 @@
         <v>45147</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53824,7 +53824,7 @@
         <v>45169</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53881,7 +53881,7 @@
         <v>44867</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -53938,7 +53938,7 @@
         <v>44745.84396990741</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53995,7 +53995,7 @@
         <v>45630.45069444444</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54052,7 +54052,7 @@
         <v>45533.56108796296</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54109,7 +54109,7 @@
         <v>45533.58302083334</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54171,7 +54171,7 @@
         <v>45124</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54228,7 +54228,7 @@
         <v>44431</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54285,7 +54285,7 @@
         <v>45071</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54342,7 +54342,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54399,7 +54399,7 @@
         <v>44410</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54456,7 +54456,7 @@
         <v>45481.58048611111</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54513,7 +54513,7 @@
         <v>45111.48787037037</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45391.41976851852</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45786.52996527778</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54684,7 +54684,7 @@
         <v>45786.52878472222</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54741,7 +54741,7 @@
         <v>45463</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54798,7 +54798,7 @@
         <v>45630.47564814815</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54855,7 +54855,7 @@
         <v>45698.69016203703</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -54912,7 +54912,7 @@
         <v>45726.62721064815</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54969,7 +54969,7 @@
         <v>45791.89865740741</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         <v>45796</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -575,7 +575,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>44811</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45314</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45301.67922453704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45755</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45377.54726851852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45748</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45678</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>45926.90006944445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121.60543981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>45987</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45971</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44245</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>44811</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45979.35256944445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>45742</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44424</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44426.64793981481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44386</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44943</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45896.86820601852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45908</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>45960</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45008.60878472222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45760.34877314815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45048</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>45786.52827546297</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44371</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45713</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>45104</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>45224</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>45649</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45168</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45168</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>45821</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>45077</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>45959.57126157408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>45959.56684027778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45971.43178240741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>45979.37598379629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>45399.71412037037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44403</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>44377.61104166666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45574.42767361111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44281.79269675926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44270.67071759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44287.33261574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44490.38613425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44447</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44481.47483796296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44350</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44375.39033564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44614</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44670</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44670</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44307</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44350</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44327.47658564815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44509</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44406</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>44480</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44238</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>44824.53434027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>44585.51829861111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>44418</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44785.40800925926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>44826.68010416667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44862</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44578.47597222222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44516.59703703703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44603</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44483.58295138889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44542.8859375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44494</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>44354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>44512.70245370371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>44404.87505787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>44790</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44261</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44530.38055555556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>44588</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>44588</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>44790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>44790.47628472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>44475</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>44312</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>44385</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>44237.8550925926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>44410.71038194445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>44670</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44365</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44279.33400462963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44301.36048611111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44273</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44729.28226851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44271.37226851852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>44340.54472222222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>44774</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>44733</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44371.62743055556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44386.40783564815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44480</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44245</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44463.29439814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44337</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44588</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44789</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44377</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>44379</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44508</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44634.69703703704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44480</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44340.58002314815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44769.45422453704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44612.86762731482</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44819</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44517</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44270</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44341</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44447.34237268518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44294</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44480</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44525.63913194444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44279.64934027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44662</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44564</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44379</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44284.44574074074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44636</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44817.57988425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44294</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44294</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44676.85248842592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>44305</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>44604</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>44383</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>44476</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>44854</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>44418</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44451.8375</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44823</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44384</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44790.48503472222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44620</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>44854.59157407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>44266.7240625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44270.49743055556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44722.48768518519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44447</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44305.40046296296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44824</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44369</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44742</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44375.38789351852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44386</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44427</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44851.95016203704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44644</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44832.67608796297</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44621</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44876.48346064815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44733.43092592592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>44609</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>44284.42348379629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>44421</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>44278.63479166666</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44273</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44612.86554398148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44470.44232638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44466.34726851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44866.81100694444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>44634</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44608.50458333334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>44817</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>44292</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>44588.37998842593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>44588</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45632.72635416667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45033.76043981482</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45114.55136574074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45111.48395833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45624.60141203704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45196.57247685185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45617.47570601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>44994.40635416667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44607</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>44903</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>45411.47335648148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44991.89657407408</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>44991.30547453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>44991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44879.55940972222</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>45764.44931712963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45735.56751157407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45054.6750462963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45048.59699074074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>45261.44914351852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44910.54231481482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45728.54832175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44693.62822916666</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44981.58834490741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45346.67184027778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45394.66887731481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44992</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45732.79925925926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45052</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45147.67096064815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45299.62576388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45588.66457175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45453.36067129629</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45610.59094907407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45623.9525462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>44564.62598379629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45552.36759259259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45020</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45607.56773148148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44992.62498842592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45030.71012731481</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45674.71810185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45539.38744212963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45224.64659722222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45237.63225694445</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>45237.64408564815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>45533.63056712963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16112,7 +16112,7 @@
         <v>45761.39600694444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16169,7 +16169,7 @@
         <v>45434.55831018519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>45434.56398148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>45345.83557870371</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44720.53898148148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>44966</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>45482.49870370371</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44243</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>45558.44914351852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44965.4815162037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>45328.38755787037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45309.59487268519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45097.40524305555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44931</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44861</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45300.3794212963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45254.62489583333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>45350.53306712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45063.49936342592</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45145</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45485.45778935185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45527.68784722222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45187.60813657408</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45603.74959490741</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45715.44159722222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44992.4255787037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>44981.64725694444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>45163.41376157408</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45574.49298611111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45108.703125</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44510.52157407408</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>44553</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45401.53033564815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44418</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45217.47834490741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>44566</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44488.35878472222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>44918</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45450.51092592593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45884.50613425926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45163</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>44988</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45275.41833333333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45168.89298611111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45187</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>44754</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45635.66409722222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45804.39141203704</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45804.6953587963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45552.36484953704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>45460.62172453704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>45804.708125</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45805.39247685186</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>44769.45805555556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45128.58414351852</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45171.96248842592</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>45805.52983796296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>45804.44519675926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45805</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45650.37370370371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45128.37305555555</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>45189</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45540.50098379629</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45891.50216435185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45891.50986111111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>45891</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>45425.57538194444</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>45891.50525462963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45891</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45475.48303240741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>45735.58024305556</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45232</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>45041.63380787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
         <v>45897.64208333333</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20484,7 +20484,7 @@
         <v>45897.63520833333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>45002</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>45818.58993055556</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>45482.54844907407</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>45898.58861111111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         <v>44867</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20831,7 +20831,7 @@
         <v>45818.58769675926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>45901.6327662037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>45897.88836805556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>45901.63219907408</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>45818.595625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45818.59261574074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45897.88706018519</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45897.89737268518</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>45818.5862037037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>45236</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45845</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>45121</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>45819.61060185185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44967.44255787037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44903.33363425926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45174.31395833333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44943.57309027778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>45820.33708333333</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45820.34128472222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>45902.47164351852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>45317.40372685185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44857.65989583333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>44965</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>45359.44837962963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>45820.33930555556</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>44944.71386574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>44944.72100694444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>45467.74417824074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>45446.36482638889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>44312</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45000.47998842593</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>45908.57716435185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>45440.28329861111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>45908</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>45908</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>45495</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45554.63225694445</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45825.58672453704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>45257.67958333333</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45845.42015046296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45825.5796875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23198,7 +23198,7 @@
         <v>45911.47138888889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44595.583125</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45911.67798611111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>44999.35858796296</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45915.56430555556</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45301</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44789</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>45915.55950231481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>45827</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>45827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>45916.7103587963</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23825,7 +23825,7 @@
         <v>44958.61047453704</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         <v>45917.67054398148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>45916.41019675926</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>45219.40528935185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>45903.38800925926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>44663</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>45567</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45623.95947916667</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>45831</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>45041</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24395,7 +24395,7 @@
         <v>45919.42387731482</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         <v>45434.55471064815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>45434.56291666667</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>45201.39996527778</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>45921.95611111111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45086.63334490741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45921.96395833333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>45924.57697916667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>45833.64563657407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>45833.64814814815</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>45925.50075231482</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>44599</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>45832.46146990741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25146,7 +25146,7 @@
         <v>45833.64237268519</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>44944.73487268519</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45330</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>45330</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>45832.34540509259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>45925.49670138889</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>45250.5278587963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>45834.65040509259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45070</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45225.60192129629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>45929.3672337963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45709.62280092593</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>45923</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>45700.68289351852</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44539</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45835.44709490741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45835.48267361111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45835.48445601852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45835.48862268519</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>45299.47513888889</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45834.64667824074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44910</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45835.44732638889</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44598.7384837963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45835.36229166666</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45835.45099537037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45835.4924537037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44848.59133101852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45834.65197916667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45559.38876157408</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45930.39769675926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45415.48979166667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>44542.90072916666</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45933.60982638889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45932.59597222223</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45749.60487268519</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>45837.77701388889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>44984.45895833334</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>45446.36865740741</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>45840.59474537037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>45245.63574074074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45932.58896990741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45841.70569444444</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45841.70868055556</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45732.76936342593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45936.65121527778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45707.3793287037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45936.63373842592</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45934.40527777778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45934.41387731482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28202,7 +28202,7 @@
         <v>45832.46649305556</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         <v>45935</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45841.7072337963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>44578.32717592592</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28430,7 +28430,7 @@
         <v>45525.41762731481</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28487,7 +28487,7 @@
         <v>44964.5115162037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28544,7 +28544,7 @@
         <v>45811.45460648148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>45121.58699074074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28663,7 +28663,7 @@
         <v>45211.52642361111</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         <v>45075.43059027778</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28777,7 +28777,7 @@
         <v>44630</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28834,7 +28834,7 @@
         <v>45371.45865740741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>45100.4062962963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28948,7 +28948,7 @@
         <v>45845.43803240741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45845.49414351852</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45820.03976851852</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44795</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>45940.54104166666</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>45280.66769675926</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>45112.33599537037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>45945.50736111111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>45944.45962962963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>45202.4209837963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>45632.36706018518</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>45632.44886574074</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>45847.91280092593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>45947.44685185186</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>45245.36174768519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44585.50431712963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>45170</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>45853.87112268519</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>45853.87599537037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>45853.88070601852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>45755.44333333334</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>45858.60641203704</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45858.66019675926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44867</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>44732.3659837963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45635.4874537037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45952.58061342593</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45483.82479166667</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45867.51630787037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45867.63094907408</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45867.64663194444</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45867.56320601852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>45867.68625</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>45867.50792824074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>45769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         <v>45952.58194444444</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31057,7 +31057,7 @@
         <v>45867.69346064814</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>45713.92412037037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>45446.36774305555</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45615.48927083334</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45869.62276620371</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45954.44543981482</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45954.42326388889</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45870.51708333333</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45870.52111111111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45729.36868055556</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45954.51412037037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45954.44707175926</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45954.45947916667</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>45954.47172453703</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>45954.468125</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>44984</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>44984</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45870.52142361111</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45018</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45959.55577546296</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45870.51958333333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45870.52005787037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45959.58387731481</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45959.56247685185</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45959.55918981481</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45958.60146990741</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45105</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>44788</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45875.45716435185</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45875.47454861111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>44258</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45070.3665625</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45875.42716435185</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45028</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45698.53725694444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45874.57109953704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45456.59289351852</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45481.55984953704</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>44964.50894675926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>45257.70313657408</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45959.55284722222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>45533.60232638889</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>45533.60770833334</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33523,7 +33523,7 @@
         <v>45001.59209490741</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
         <v>45959.5787037037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33637,7 +33637,7 @@
         <v>45569.44295138889</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45961.43738425926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33751,7 +33751,7 @@
         <v>45961.44951388889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>44879</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>45961.46740740741</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>45960</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45961.4569212963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45475.49018518518</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>44510.60921296296</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34160,7 +34160,7 @@
         <v>44961</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34217,7 +34217,7 @@
         <v>45961.47650462963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34274,7 +34274,7 @@
         <v>45880.38380787037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>44984</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34388,7 +34388,7 @@
         <v>45090.38012731481</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         <v>45960</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>45964.62671296296</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34564,7 +34564,7 @@
         <v>45174</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34621,7 +34621,7 @@
         <v>45880.51550925926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45091.67936342592</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45964.62486111111</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45881.59877314815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45966.56826388889</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34911,7 +34911,7 @@
         <v>45881</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>45646.38200231481</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>45966.64881944445</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>45971</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>44392</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>45971</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>45971</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45971.43350694444</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45545.49508101852</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>45361.87975694444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44896</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>45887.68759259259</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>45699.44291666667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>45114.49505787037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>45111.48225694444</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
         <v>45111.48636574074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>45098.30535879629</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35885,7 +35885,7 @@
         <v>46020.44902777778</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>46020.41998842593</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35999,7 +35999,7 @@
         <v>46018.67197916667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36056,7 +36056,7 @@
         <v>46020.43715277778</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36113,7 +36113,7 @@
         <v>45154.49831018518</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>45722.48634259259</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>45481.56722222222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>45453.36854166666</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>44992.34151620371</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36403,7 +36403,7 @@
         <v>44502</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36460,7 +36460,7 @@
         <v>46018.46483796297</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45378.32185185186</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45726.44471064815</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>45377.40043981482</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>45219.69356481481</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>45211.55472222222</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36807,7 +36807,7 @@
         <v>45981</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36864,7 +36864,7 @@
         <v>44977</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36921,7 +36921,7 @@
         <v>45498.673125</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36978,7 +36978,7 @@
         <v>45985.69509259259</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>45985.68671296296</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37092,7 +37092,7 @@
         <v>45985.69153935185</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>45985.70513888889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>45985.61635416667</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37263,7 +37263,7 @@
         <v>45985.61501157407</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37320,7 +37320,7 @@
         <v>45985.62168981481</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>44825.4336574074</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>45215.60199074074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37491,7 +37491,7 @@
         <v>45533.55362268518</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>45754.33641203704</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>45415.57682870371</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45985.69008101852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>45187.42854166667</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>46028.69432870371</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37833,7 +37833,7 @@
         <v>45987.36275462963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37890,7 +37890,7 @@
         <v>46028.68663194445</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
         <v>44475</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>44839.4528125</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45987.4243287037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>44875.27736111111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38175,7 +38175,7 @@
         <v>46029.47912037037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38232,7 +38232,7 @@
         <v>45533.54429398148</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38289,7 +38289,7 @@
         <v>44973.43075231482</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>45106.2610300926</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38403,7 +38403,7 @@
         <v>45705.74418981482</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38460,7 +38460,7 @@
         <v>45301.68237268519</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45722.48915509259</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38574,7 +38574,7 @@
         <v>45988.36790509259</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>46030.380625</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38693,7 +38693,7 @@
         <v>45106</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38750,7 +38750,7 @@
         <v>45988.36243055556</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38812,7 +38812,7 @@
         <v>45743.41148148148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38869,7 +38869,7 @@
         <v>45569.44684027778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38926,7 +38926,7 @@
         <v>45148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38983,7 +38983,7 @@
         <v>45361.90282407407</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>44952.35775462963</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39097,7 +39097,7 @@
         <v>45548</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>45988.36508101852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>45988.41725694444</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>45394.50028935185</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>45138</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>46034</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>45992.30569444445</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39501,7 +39501,7 @@
         <v>46034</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>46034.65589120371</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39615,7 +39615,7 @@
         <v>45317</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45384.66917824074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>46035.44689814815</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45698.51711805556</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>45513.55840277778</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>46030</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>45513.56527777778</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>46037.42219907408</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40076,7 +40076,7 @@
         <v>46037.42511574074</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40133,7 +40133,7 @@
         <v>46037.42825231481</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40190,7 +40190,7 @@
         <v>45637.66542824074</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40247,7 +40247,7 @@
         <v>45639.56185185185</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40304,7 +40304,7 @@
         <v>45153.32778935185</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40361,7 +40361,7 @@
         <v>45994.46428240741</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40418,7 +40418,7 @@
         <v>45635.66695601852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40475,7 +40475,7 @@
         <v>45994</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40532,7 +40532,7 @@
         <v>45211.541875</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40589,7 +40589,7 @@
         <v>44890</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40646,7 +40646,7 @@
         <v>44278.54855324074</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40703,7 +40703,7 @@
         <v>45278</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40765,7 +40765,7 @@
         <v>45029</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40822,7 +40822,7 @@
         <v>45588.65545138889</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40879,7 +40879,7 @@
         <v>45699.45671296296</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40936,7 +40936,7 @@
         <v>45086</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40993,7 +40993,7 @@
         <v>45128</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41050,7 +41050,7 @@
         <v>45121.5965162037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41112,7 +41112,7 @@
         <v>45121.59954861111</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41174,7 +41174,7 @@
         <v>45121.6096875</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41236,7 +41236,7 @@
         <v>44635</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41293,7 +41293,7 @@
         <v>45343.68038194445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41350,7 +41350,7 @@
         <v>45581.57958333333</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41407,7 +41407,7 @@
         <v>45539.65212962963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41464,7 +41464,7 @@
         <v>46043.6360300926</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>46043.63940972222</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41578,7 +41578,7 @@
         <v>45301.67736111111</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         <v>44546</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41692,7 +41692,7 @@
         <v>45768.65611111111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41749,7 +41749,7 @@
         <v>44377</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41806,7 +41806,7 @@
         <v>45369.62780092593</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41863,7 +41863,7 @@
         <v>44377.49684027778</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41925,7 +41925,7 @@
         <v>45526.3865625</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>45755.64450231481</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42044,7 +42044,7 @@
         <v>45518.40657407408</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         <v>46044.34563657407</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42158,7 +42158,7 @@
         <v>46002.58680555555</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42220,7 +42220,7 @@
         <v>46002.68768518518</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42282,7 +42282,7 @@
         <v>45741.37270833334</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>44237</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         <v>45622</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         <v>45574.35809027778</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>45533.61996527778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42572,7 +42572,7 @@
         <v>44588</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42629,7 +42629,7 @@
         <v>46002.58822916666</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42691,7 +42691,7 @@
         <v>45582.41200231481</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42748,7 +42748,7 @@
         <v>46041</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42805,7 +42805,7 @@
         <v>45736.50743055555</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>44833.60123842592</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42919,7 +42919,7 @@
         <v>46041</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42976,7 +42976,7 @@
         <v>44270.39765046296</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43038,7 +43038,7 @@
         <v>44897</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>45498</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>45009.4671875</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43209,7 +43209,7 @@
         <v>44992</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44999.86172453704</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43323,7 +43323,7 @@
         <v>44999.8625</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43380,7 +43380,7 @@
         <v>45148</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43437,7 +43437,7 @@
         <v>44453.56578703703</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43494,7 +43494,7 @@
         <v>45581.57016203704</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43551,7 +43551,7 @@
         <v>45581.58418981481</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43608,7 +43608,7 @@
         <v>45495</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43665,7 +43665,7 @@
         <v>45618.56787037037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>45699.45392361111</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>45259.51916666667</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43841,7 +43841,7 @@
         <v>45259.52020833334</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>45562.46342592593</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>44517</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>45533.38870370371</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44131,7 +44131,7 @@
         <v>44992</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44193,7 +44193,7 @@
         <v>45658.78774305555</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44250,7 +44250,7 @@
         <v>45121.61318287037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44312,7 +44312,7 @@
         <v>46057.38412037037</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44369,7 +44369,7 @@
         <v>45275.32266203704</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44426,7 +44426,7 @@
         <v>46014.62724537037</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44483,7 +44483,7 @@
         <v>44746.38834490741</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44540,7 +44540,7 @@
         <v>44598</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44597,7 +44597,7 @@
         <v>45079.87827546296</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44654,7 +44654,7 @@
         <v>46057.69520833333</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44711,7 +44711,7 @@
         <v>46003</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44768,7 +44768,7 @@
         <v>44579.62225694444</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44825,7 +44825,7 @@
         <v>44495</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44882,7 +44882,7 @@
         <v>45090.89653935185</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44939,7 +44939,7 @@
         <v>45090.89880787037</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44996,7 +44996,7 @@
         <v>44638.55256944444</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45053,7 +45053,7 @@
         <v>44600</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45110,7 +45110,7 @@
         <v>44451</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45167,7 +45167,7 @@
         <v>45245.5735300926</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45224,7 +45224,7 @@
         <v>45415.47848379629</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45281,7 +45281,7 @@
         <v>45621.46103009259</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45338,7 +45338,7 @@
         <v>44861.52505787037</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45395,7 +45395,7 @@
         <v>45308.61152777778</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45452,7 +45452,7 @@
         <v>45063.508125</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45509,7 +45509,7 @@
         <v>44895.62296296296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45566,7 +45566,7 @@
         <v>44452</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45623,7 +45623,7 @@
         <v>45009</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45680,7 +45680,7 @@
         <v>45379</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45737,7 +45737,7 @@
         <v>44820</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45794,7 +45794,7 @@
         <v>45215.5959375</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45851,7 +45851,7 @@
         <v>45215.59743055556</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45908,7 +45908,7 @@
         <v>45351.6062962963</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45965,7 +45965,7 @@
         <v>45674.74094907408</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46022,7 +46022,7 @@
         <v>45539.66027777778</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46079,7 +46079,7 @@
         <v>45565.40657407408</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46136,7 +46136,7 @@
         <v>45482.54108796296</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46193,7 +46193,7 @@
         <v>45195.58452546296</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46250,7 +46250,7 @@
         <v>45026.82216435186</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46307,7 +46307,7 @@
         <v>45266.32614583334</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46364,7 +46364,7 @@
         <v>44440</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46421,7 +46421,7 @@
         <v>45554.62944444444</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46478,7 +46478,7 @@
         <v>45632.37459490741</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46535,7 +46535,7 @@
         <v>44803.59118055556</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46592,7 +46592,7 @@
         <v>45567.42011574074</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46649,7 +46649,7 @@
         <v>44587.48847222222</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         <v>45110.4275</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46763,7 +46763,7 @@
         <v>45503.5658912037</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46820,7 +46820,7 @@
         <v>44956</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46882,7 +46882,7 @@
         <v>44270.38002314815</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46944,7 +46944,7 @@
         <v>44596</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>45113.41633101852</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>45666</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47115,7 +47115,7 @@
         <v>44918.50106481482</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47172,7 +47172,7 @@
         <v>45027.59450231482</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47234,7 +47234,7 @@
         <v>45224.6515162037</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45377</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>45106.25025462963</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45114.47895833333</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>45349.54434027777</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47524,7 +47524,7 @@
         <v>45334.78826388889</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47581,7 +47581,7 @@
         <v>45114.58148148148</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47638,7 +47638,7 @@
         <v>44600</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45581.57333333333</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47752,7 +47752,7 @@
         <v>45359.45038194444</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47809,7 +47809,7 @@
         <v>44895.46524305556</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47866,7 +47866,7 @@
         <v>44587</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47923,7 +47923,7 @@
         <v>45569.45017361111</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47980,7 +47980,7 @@
         <v>45569.47494212963</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48037,7 +48037,7 @@
         <v>45588.67070601852</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48094,7 +48094,7 @@
         <v>45355.54138888889</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         <v>44949</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48208,7 +48208,7 @@
         <v>45660</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48265,7 +48265,7 @@
         <v>45090</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>44467.83386574074</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>44340</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         <v>44790.49040509259</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48493,7 +48493,7 @@
         <v>44784.42528935185</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48550,7 +48550,7 @@
         <v>44935</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48607,7 +48607,7 @@
         <v>44852</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48664,7 +48664,7 @@
         <v>45100.85270833333</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48721,7 +48721,7 @@
         <v>45517.8162037037</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48778,7 +48778,7 @@
         <v>44578.62943287037</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>44994.46908564815</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44900.57393518519</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48949,7 +48949,7 @@
         <v>44440.60415509259</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49006,7 +49006,7 @@
         <v>45201</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49063,7 +49063,7 @@
         <v>44966</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49120,7 +49120,7 @@
         <v>45323.53744212963</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45308.59001157407</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>45111.30824074074</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45086.63194444445</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45196</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49405,7 +49405,7 @@
         <v>45320.89128472222</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49462,7 +49462,7 @@
         <v>44987.54104166666</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49519,7 +49519,7 @@
         <v>45208</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49576,7 +49576,7 @@
         <v>45001.43854166667</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49633,7 +49633,7 @@
         <v>44585.51060185185</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49690,7 +49690,7 @@
         <v>45260.4716550926</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49747,7 +49747,7 @@
         <v>44943.62954861111</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49804,7 +49804,7 @@
         <v>45371.36359953704</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49861,7 +49861,7 @@
         <v>44938</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49923,7 +49923,7 @@
         <v>44949</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49985,7 +49985,7 @@
         <v>45020</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50042,7 +50042,7 @@
         <v>45568.30189814815</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50099,7 +50099,7 @@
         <v>44894.49538194444</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50156,7 +50156,7 @@
         <v>44790.45876157407</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50213,7 +50213,7 @@
         <v>44790.49523148148</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>45211.43555555555</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50327,7 +50327,7 @@
         <v>44893</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50384,7 +50384,7 @@
         <v>45174.40454861111</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50441,7 +50441,7 @@
         <v>45713.45311342592</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50498,7 +50498,7 @@
         <v>44994.42113425926</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50555,7 +50555,7 @@
         <v>45176.72427083334</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50612,7 +50612,7 @@
         <v>45759.38987268518</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>45061</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50731,7 +50731,7 @@
         <v>44310</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>45096.45247685185</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50845,7 +50845,7 @@
         <v>45391.41310185185</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50902,7 +50902,7 @@
         <v>45163.63621527778</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50964,7 +50964,7 @@
         <v>45093.62777777778</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         <v>45630.35827546296</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51083,7 +51083,7 @@
         <v>44431.84840277778</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51140,7 +51140,7 @@
         <v>45671.46746527778</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51197,7 +51197,7 @@
         <v>45110.4184375</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51254,7 +51254,7 @@
         <v>45182.78834490741</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51311,7 +51311,7 @@
         <v>45761.4437962963</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51368,7 +51368,7 @@
         <v>45128.9325</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51425,7 +51425,7 @@
         <v>45128.93540509259</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51482,7 +51482,7 @@
         <v>44999.36081018519</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51539,7 +51539,7 @@
         <v>45567</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51596,7 +51596,7 @@
         <v>44466.34962962963</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51653,7 +51653,7 @@
         <v>45530.33202546297</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51710,7 +51710,7 @@
         <v>44910.41346064815</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51767,7 +51767,7 @@
         <v>45483.82834490741</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51824,7 +51824,7 @@
         <v>45698.52806712963</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51881,7 +51881,7 @@
         <v>45271.66576388889</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51938,7 +51938,7 @@
         <v>45224.60075231481</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52000,7 +52000,7 @@
         <v>45113.56574074074</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52057,7 +52057,7 @@
         <v>44540</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52114,7 +52114,7 @@
         <v>44916.55414351852</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52171,7 +52171,7 @@
         <v>45149.60917824074</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52228,7 +52228,7 @@
         <v>45482.52887731481</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52285,7 +52285,7 @@
         <v>44879.62173611111</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52342,7 +52342,7 @@
         <v>45700.68672453704</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52399,7 +52399,7 @@
         <v>44603</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52456,7 +52456,7 @@
         <v>45147.67172453704</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52513,7 +52513,7 @@
         <v>44959.66407407408</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52570,7 +52570,7 @@
         <v>45171.77335648148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52627,7 +52627,7 @@
         <v>45698.53336805556</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52684,7 +52684,7 @@
         <v>45113.43921296296</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52741,7 +52741,7 @@
         <v>44967.45122685185</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52798,7 +52798,7 @@
         <v>44963.44769675926</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52855,7 +52855,7 @@
         <v>45720.44217592593</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52912,7 +52912,7 @@
         <v>44909</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52969,7 +52969,7 @@
         <v>45747.43196759259</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53026,7 +53026,7 @@
         <v>45747.42633101852</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         <v>45747.42958333333</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53140,7 +53140,7 @@
         <v>45699.60055555555</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53197,7 +53197,7 @@
         <v>44784.62724537037</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53254,7 +53254,7 @@
         <v>45243.84869212963</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53311,7 +53311,7 @@
         <v>44643</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53368,7 +53368,7 @@
         <v>45761.35990740741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53425,7 +53425,7 @@
         <v>44964.44356481481</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53482,7 +53482,7 @@
         <v>45238.4328587963</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53539,7 +53539,7 @@
         <v>44893</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53596,7 +53596,7 @@
         <v>45658.80232638889</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53653,7 +53653,7 @@
         <v>45658.80827546296</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53710,7 +53710,7 @@
         <v>45572.48293981481</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53767,7 +53767,7 @@
         <v>45147</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53824,7 +53824,7 @@
         <v>45169</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53881,7 +53881,7 @@
         <v>44867</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -53938,7 +53938,7 @@
         <v>44745.84396990741</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53995,7 +53995,7 @@
         <v>45630.45069444444</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54052,7 +54052,7 @@
         <v>45533.56108796296</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54109,7 +54109,7 @@
         <v>45533.58302083334</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54171,7 +54171,7 @@
         <v>45124</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54228,7 +54228,7 @@
         <v>44431</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54285,7 +54285,7 @@
         <v>45071</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54342,7 +54342,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54399,7 +54399,7 @@
         <v>44410</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54456,7 +54456,7 @@
         <v>45481.58048611111</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54513,7 +54513,7 @@
         <v>45111.48787037037</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54570,7 +54570,7 @@
         <v>45391.41976851852</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54627,7 +54627,7 @@
         <v>45786.52996527778</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54684,7 +54684,7 @@
         <v>45786.52878472222</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54741,7 +54741,7 @@
         <v>45463</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54798,7 +54798,7 @@
         <v>45630.47564814815</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54855,7 +54855,7 @@
         <v>45698.69016203703</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -54912,7 +54912,7 @@
         <v>45726.62721064815</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54969,7 +54969,7 @@
         <v>45791.89865740741</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         <v>45796</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -575,7 +575,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>44811</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45314</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45755</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45377.54726851852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45301.67922453704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45748</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45678</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>45926.90006944445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121.60543981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>45987</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45971</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44811</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45979.35256944445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45742</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>45020</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44424</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44426.64793981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44386</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44943</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45896.86820601852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>45908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45960</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>45072</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>45008.60878472222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>45760.34877314815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45048</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45786.52827546297</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>44371</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45713</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45104</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>45224</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>45821</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45168</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45168</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>45649</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>45077</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45959.57126157408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>45959.56684027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45399.71412037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45971.43178240741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45979.37598379629</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44377.61104166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45574.42767361111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>45667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>44281.79269675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44287.33261574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44270.67071759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44490.38613425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44375.39033564815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44350</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>44614</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44670</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44670</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44481.47483796296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44307</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44350</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44327.47658564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44406</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>44509</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>44480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44585.51829861111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44824.53434027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>44418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44785.40800925926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>44826.68010416667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44862</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44578.47597222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44516.59703703703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44603</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44404.87505787037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44483.58295138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44542.8859375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44354</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44512.70245370371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44790</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>44530.38055555556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>44261</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>44588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44588</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>44790.47628472222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44312</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44385</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44410.71038194445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44279.33400462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44670</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44365</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44273</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44301.36048611111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44729.28226851852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44271.37226851852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>44340.54472222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44340</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44774</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44733</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44733</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44371.62743055556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44386.40783564815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44480</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44337</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44463.29439814815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44377</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44379</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44480</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44634.69703703704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44340.58002314815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44769.45422453704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44612.86762731482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44819</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44270</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44341</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44447.34237268518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44294</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44525.63913194444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44662</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44279.64934027778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44564</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44379</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44284.44574074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44636</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44817.57988425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44294</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44294</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44676.85248842592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44604</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44305</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44383</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44476</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44418</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44854</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44451.8375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44823</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44384</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44790.48503472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44620</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44854.59157407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44266.7240625</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44270.49743055556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44722.48768518519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44305.40046296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>44447</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44824</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44369</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44742</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44375.38789351852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44386</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44427</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44851.95016203704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44644</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44832.67608796297</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44621</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>44876.48346064815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>44733.43092592592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>44609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44284.42348379629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44421</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44273</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44278.63479166666</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44612.86554398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44470.44232638889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44466.34726851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44866.81100694444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44634</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44608.50458333334</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44292</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44588.37998842593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45632.72635416667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45033.76043981482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45196.57247685185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44994.40635416667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44607</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>45624.60141203704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45617.47570601852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44991.89657407408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45114.55136574074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44903</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>45411.47335648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44991.30547453704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44879.55940972222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45764.44931712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45054.6750462963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45735.56751157407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45728.54832175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44693.62822916666</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45048.59699074074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45111.48395833333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>45261.44914351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44981.58834490741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44910.54231481482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>45346.67184027778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>45732.79925925926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45147.67096064815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45610.59094907407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45394.66887731481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>45052</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44302</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45588.66457175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45453.36067129629</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45299.62576388889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45623.9525462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>45020</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44564.62598379629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>45552.36759259259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44992.62498842592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>45030.71012731481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45607.56773148148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45674.71810185185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45237.63225694445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45237.64408564815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45539.38744212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45434.55831018519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>45434.56398148148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45533.63056712963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45345.83557870371</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45224.64659722222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>45482.49870370371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>45097.40524305555</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44931</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44965.4815162037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45328.38755787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45558.44914351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45309.59487268519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45254.62489583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45350.53306712963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>44861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16592,7 +16592,7 @@
         <v>45063.49936342592</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
         <v>45300.3794212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>45145</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>45485.45778935185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>45187.60813657408</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45163.41376157408</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45108.703125</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>44510.52157407408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>45761.39600694444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44981.64725694444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>44553</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45217.47834490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45275.41833333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44566</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44488.35878472222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45552.36484953704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45168.89298611111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>44918</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45187</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45460.62172453704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45450.51092592593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>44754</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45163</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44988</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44769.45805555556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45128.58414351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45171.96248842592</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45128.37305555555</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44720.53898148148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>45189</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>45650.37370370371</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45540.50098379629</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>45425.57538194444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>45475.48303240741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>45735.58024305556</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>45232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>45818.58993055556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45818.58769675926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>45818.595625</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>45041.63380787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45818.59261574074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>45818.5862037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45002</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45884.50613425926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45819.61060185185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45482.54844907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>44867</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45820.33708333333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45820.34128472222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45236</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45121</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44967.44255787037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45820.33930555556</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>44903.33363425926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45174.31395833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>44943.57309027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45825.58672453704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45825.5796875</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45317.40372685185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>44857.65989583333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>44965</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>45359.44837962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>45891.50216435185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>45891.50986111111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>45891</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44944.71386574074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>44944.72100694444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45467.74417824074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45446.36482638889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44312</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>45891.50525462963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45000.47998842593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45891</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45827</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45440.28329861111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45495</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45554.63225694445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45257.67958333333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45831</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45897.64208333333</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>44595.583125</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>45897.63520833333</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>44999.35858796296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>45301</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45833.64563657407</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>45833.64814814815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>45832.46146990741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>45833.64237268519</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>45898.58861111111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>44789</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>45832.34540509259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>45901.6327662037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>45897.88836805556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45901.63219907408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45897.88706018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45897.89737268518</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45834.65040509259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45709.62280092593</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45845</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45835.44709490741</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45835.48267361111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45835.48445601852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45835.48862268519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>44958.61047453704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45834.64667824074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45219.40528935185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45835.44732638889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45835.36229166666</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45835.45099537037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45835.4924537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>45834.65197916667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44663</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45567</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45902.47164351852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45623.95947916667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45041</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45434.55471064815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45434.56291666667</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>45201.39996527778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>45086.63334490741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45908.57716435185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>45908</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45837.77701388889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45840.59474537037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45908</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24015,7 +24015,7 @@
         <v>45841.70569444444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24072,7 +24072,7 @@
         <v>45841.70868055556</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24129,7 +24129,7 @@
         <v>44599</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>44944.73487268519</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>45832.46649305556</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>45330</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45330</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45841.7072337963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45845.42015046296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45911.47138888889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>45811.45460648148</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>45911.67798611111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>45250.5278587963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>45225.60192129629</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>45700.68289351852</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>45845.43803240741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>45845.49414351852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44539</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>45820.03976851852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>45915.56430555556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>45299.47513888889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44910</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45915.55950231481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44598.7384837963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44848.59133101852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45847.91280092593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45916.7103587963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>45559.38876157408</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45917.67054398148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45916.41019675926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45224</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45903.38800925926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45415.48979166667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44542.90072916666</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>45853.87112268519</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>45853.87599537037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45853.88070601852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45749.60487268519</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45755.44333333334</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>45919.42387731482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45858.60641203704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>44984.45895833334</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45858.66019675926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>45446.36865740741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45245.63574074074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45921.95611111111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45732.76936342593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45707.3793287037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45921.96395833333</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45924.57697916667</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45925.50075231482</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>45867.51630787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45867.63094907408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>45867.64663194444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45867.56320601852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>45867.68625</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27274,7 +27274,7 @@
         <v>44578.32717592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>45867.50792824074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>45925.49670138889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>45769</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         <v>45525.41762731481</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44964.5115162037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27616,7 +27616,7 @@
         <v>45867.69346064814</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>45929.3672337963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45869.62276620371</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>45923</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45121.58699074074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>45870.51708333333</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>45870.52111111111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45211.52642361111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45923</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45075.43059027778</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44630</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>45870.52142361111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>45371.45865740741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>45100.4062962963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45870.51958333333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45870.52005787037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44795</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45930.39769675926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>45875.45716435185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>45875.47454861111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45280.66769675926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>45112.33599537037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>45875.42716435185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>45933.60982638889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>45874.57109953704</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>45932.59597222223</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>45202.4209837963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>45632.36706018518</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>45632.44886574074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45880.38380787037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45245.36174768519</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44585.50431712963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>45932.58896990741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>45936.65121527778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>45170</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>45936.63373842592</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>45934.40527777778</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45880.51550925926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>45934.41387731482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>45935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>45881.59877314815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45881</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44732.3659837963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45635.4874537037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45483.82479166667</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45887.68759259259</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45713.92412037037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45446.36774305555</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45615.48927083334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>45729.36868055556</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>45940.54104166666</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30714,7 +30714,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30771,7 +30771,7 @@
         <v>44984</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
         <v>45945.50736111111</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45018</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         <v>45944.45962962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30999,7 +30999,7 @@
         <v>45105</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>44788</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44258</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45070.3665625</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45028</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45698.53725694444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31341,7 +31341,7 @@
         <v>45456.59289351852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31398,7 +31398,7 @@
         <v>45947.44685185186</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45481.55984953704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>44964.50894675926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45257.70313657408</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         <v>45533.60232638889</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45533.60770833334</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>45001.59209490741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>45569.44295138889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>45475.49018518518</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>44510.60921296296</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44961</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44984</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45090.38012731481</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45952.58061342593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45174</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45952.58194444444</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>45091.67936342592</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>45954.44543981482</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45954.42326388889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>45646.38200231481</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>45954.51412037037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45954.44707175926</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>45954.45947916667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>45954.47172453703</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>45954.468125</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44392</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>45959.55577546296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>45959.58387731481</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45959.56247685185</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45959.55918981481</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45958.60146990741</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45959.55284722222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>45959.5787037037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>45961.43738425926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>45545.49508101852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>45361.87975694444</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>45961.44951388889</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>45961.46740740741</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>45960</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33760,7 +33760,7 @@
         <v>45961.4569212963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33817,7 +33817,7 @@
         <v>45699.44291666667</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33874,7 +33874,7 @@
         <v>45961.47650462963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         <v>45114.49505787037</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33988,7 +33988,7 @@
         <v>45111.48225694444</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34045,7 +34045,7 @@
         <v>45111.48636574074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45960</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>45098.30535879629</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45964.62671296296</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34278,7 +34278,7 @@
         <v>45154.49831018518</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34335,7 +34335,7 @@
         <v>45964.62486111111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>45722.48634259259</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>45481.56722222222</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>45453.36854166666</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44992.34151620371</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44502</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>45378.32185185186</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34739,7 +34739,7 @@
         <v>45726.44471064815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>45377.40043981482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>45966.56826388889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
         <v>45219.69356481481</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>45966.64881944445</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>45211.55472222222</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>45971</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44977</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>45498.673125</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>45971</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>45971</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>45971.43350694444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44825.4336574074</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>45215.60199074074</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>45533.55362268518</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>45754.33641203704</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>45415.57682870371</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35713,7 +35713,7 @@
         <v>45187.42854166667</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>44475</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35827,7 +35827,7 @@
         <v>44839.4528125</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35884,7 +35884,7 @@
         <v>44875.27736111111</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>45533.54429398148</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35998,7 +35998,7 @@
         <v>44973.43075231482</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36055,7 +36055,7 @@
         <v>45106.2610300926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36112,7 +36112,7 @@
         <v>45705.74418981482</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36169,7 +36169,7 @@
         <v>45301.68237268519</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         <v>45722.48915509259</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>45106</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>45981</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45743.41148148148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45569.44684027778</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45361.90282407407</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44952.35775462963</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45548</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>45985.69509259259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>45985.68671296296</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
         <v>45985.69153935185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>45985.70513888889</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>45394.50028935185</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>45985.61635416667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>45985.61501157407</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45985.62168981481</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
         <v>45138</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45985.69008101852</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45987.36275462963</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37366,7 +37366,7 @@
         <v>45317</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45987.4243287037</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>45384.66917824074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45698.51711805556</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45513.55840277778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37656,7 +37656,7 @@
         <v>45513.56527777778</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37713,7 +37713,7 @@
         <v>45988.36790509259</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>45988.36243055556</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45988.36508101852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45637.66542824074</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45988.41725694444</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45639.56185185185</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>46034</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>45992.30569444445</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>45153.32778935185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>46034</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>45635.66695601852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>45211.541875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>46034.65589120371</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>44890</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         <v>44278.54855324074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38583,7 +38583,7 @@
         <v>45278</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>46035.44689814815</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>45029</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>45588.65545138889</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>46037.42219907408</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38873,7 +38873,7 @@
         <v>46037.42511574074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38930,7 +38930,7 @@
         <v>46037.42825231481</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>45699.45671296296</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>45086</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>45128</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39158,7 +39158,7 @@
         <v>45121.5965162037</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>45121.59954861111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>45121.6096875</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44635</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>45994.46428240741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>45994</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>45343.68038194445</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>45581.57958333333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>45539.65212962963</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>45301.67736111111</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44546</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>45768.65611111111</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44377</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>45369.62780092593</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44377.49684027778</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45526.3865625</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45755.64450231481</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>46043.6360300926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40209,7 +40209,7 @@
         <v>46043.63940972222</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40266,7 +40266,7 @@
         <v>45518.40657407408</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40323,7 +40323,7 @@
         <v>45741.37270833334</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40380,7 +40380,7 @@
         <v>45622</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>45574.35809027778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>45533.61996527778</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40556,7 +40556,7 @@
         <v>44588</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40613,7 +40613,7 @@
         <v>46044.34563657407</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40670,7 +40670,7 @@
         <v>46002.58680555555</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40732,7 +40732,7 @@
         <v>46002.68768518518</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>45582.41200231481</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40851,7 +40851,7 @@
         <v>45736.50743055555</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40908,7 +40908,7 @@
         <v>44833.60123842592</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40965,7 +40965,7 @@
         <v>46002.58822916666</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44270.39765046296</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45498</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>46041</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>46041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45009.4671875</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>44999.86172453704</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>44999.8625</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45148</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44453.56578703703</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45581.57016203704</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45581.58418981481</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45495</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45618.56787037037</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45699.45392361111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45259.51916666667</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>45259.52020833334</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42068,7 +42068,7 @@
         <v>45562.46342592593</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42125,7 +42125,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42182,7 +42182,7 @@
         <v>44517</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42239,7 +42239,7 @@
         <v>45533.38870370371</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42296,7 +42296,7 @@
         <v>44992</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42358,7 +42358,7 @@
         <v>45658.78774305555</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42415,7 +42415,7 @@
         <v>45121.61318287037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45275.32266203704</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>44746.38834490741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>44598</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45079.87827546296</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44579.62225694444</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>44495</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>45090.89653935185</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>45090.89880787037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>44638.55256944444</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44600</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>46057.38412037037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>46014.62724537037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>46057.69520833333</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>46003</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43275,7 +43275,7 @@
         <v>44451</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>45245.5735300926</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>45415.47848379629</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>45621.46103009259</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44861.52505787037</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>45308.61152777778</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>46018.67197916667</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>46018.46483796297</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>46020.43715277778</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>46020.44902777778</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>45063.508125</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43902,7 +43902,7 @@
         <v>44895.62296296296</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43959,7 +43959,7 @@
         <v>44452</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45009</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44073,7 +44073,7 @@
         <v>45379</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>46020.41998842593</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44820</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44244,7 +44244,7 @@
         <v>45215.5959375</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44301,7 +44301,7 @@
         <v>45215.59743055556</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44358,7 +44358,7 @@
         <v>45351.6062962963</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44415,7 +44415,7 @@
         <v>45674.74094907408</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44472,7 +44472,7 @@
         <v>45539.66027777778</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44529,7 +44529,7 @@
         <v>45565.40657407408</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45482.54108796296</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45195.58452546296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45026.82216435186</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45266.32614583334</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>46066.45273148148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>46065.7372337963</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44440</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45554.62944444444</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45632.37459490741</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>46029.47912037037</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44803.59118055556</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45567.42011574074</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44587.48847222222</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45110.4275</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>46028.69432870371</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>46028.68663194445</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45503.5658912037</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>44956</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44270.38002314815</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45679,7 +45679,7 @@
         <v>44596</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45736,7 +45736,7 @@
         <v>45113.41633101852</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45793,7 +45793,7 @@
         <v>45666</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45850,7 +45850,7 @@
         <v>44918.50106481482</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>45027.59450231482</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>45224.6515162037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45377</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45106.25025462963</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>46030.380625</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45114.47895833333</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>46030</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45349.54434027777</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45334.78826388889</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45114.58148148148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46544,7 +46544,7 @@
         <v>45581.57333333333</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46601,7 +46601,7 @@
         <v>45359.45038194444</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>44895.46524305556</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>44587</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45569.45017361111</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46829,7 +46829,7 @@
         <v>45569.47494212963</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46886,7 +46886,7 @@
         <v>45588.67070601852</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46943,7 +46943,7 @@
         <v>45355.54138888889</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47000,7 +47000,7 @@
         <v>44949</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47057,7 +47057,7 @@
         <v>45660</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47114,7 +47114,7 @@
         <v>45090</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47171,7 +47171,7 @@
         <v>44467.83386574074</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47228,7 +47228,7 @@
         <v>44340</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47285,7 +47285,7 @@
         <v>44790.49040509259</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47342,7 +47342,7 @@
         <v>44784.42528935185</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47399,7 +47399,7 @@
         <v>44935</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>44852</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45100.85270833333</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45517.8162037037</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44578.62943287037</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>44994.46908564815</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47741,7 +47741,7 @@
         <v>44900.57393518519</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47798,7 +47798,7 @@
         <v>44440.60415509259</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47855,7 +47855,7 @@
         <v>45201</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47912,7 +47912,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>45323.53744212963</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48026,7 +48026,7 @@
         <v>45308.59001157407</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48083,7 +48083,7 @@
         <v>45111.30824074074</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48140,7 +48140,7 @@
         <v>45086.63194444445</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48197,7 +48197,7 @@
         <v>45196</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48254,7 +48254,7 @@
         <v>45320.89128472222</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48311,7 +48311,7 @@
         <v>44987.54104166666</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48368,7 +48368,7 @@
         <v>45208</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48425,7 +48425,7 @@
         <v>45001.43854166667</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48482,7 +48482,7 @@
         <v>44585.51060185185</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48539,7 +48539,7 @@
         <v>45260.4716550926</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48596,7 +48596,7 @@
         <v>44943.62954861111</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48653,7 +48653,7 @@
         <v>45371.36359953704</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48710,7 +48710,7 @@
         <v>44938</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48772,7 +48772,7 @@
         <v>44949</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48834,7 +48834,7 @@
         <v>45020</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48891,7 +48891,7 @@
         <v>45568.30189814815</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48948,7 +48948,7 @@
         <v>44894.49538194444</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         <v>44790.45876157407</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49062,7 +49062,7 @@
         <v>44790.49523148148</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49119,7 +49119,7 @@
         <v>45211.43555555555</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49176,7 +49176,7 @@
         <v>44893</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49233,7 +49233,7 @@
         <v>45174.40454861111</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49290,7 +49290,7 @@
         <v>45713.45311342592</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49347,7 +49347,7 @@
         <v>44994.42113425926</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49404,7 +49404,7 @@
         <v>45176.72427083334</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49461,7 +49461,7 @@
         <v>45759.38987268518</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49518,7 +49518,7 @@
         <v>45061</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49580,7 +49580,7 @@
         <v>44310</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49637,7 +49637,7 @@
         <v>45096.45247685185</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49694,7 +49694,7 @@
         <v>45391.41310185185</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49751,7 +49751,7 @@
         <v>45163.63621527778</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49813,7 +49813,7 @@
         <v>45093.62777777778</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49875,7 +49875,7 @@
         <v>45630.35827546296</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49932,7 +49932,7 @@
         <v>44431.84840277778</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49989,7 +49989,7 @@
         <v>45671.46746527778</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50046,7 +50046,7 @@
         <v>45110.4184375</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50103,7 +50103,7 @@
         <v>45182.78834490741</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50160,7 +50160,7 @@
         <v>45761.4437962963</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50217,7 +50217,7 @@
         <v>45128.9325</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50274,7 +50274,7 @@
         <v>45128.93540509259</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50331,7 +50331,7 @@
         <v>44999.36081018519</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50388,7 +50388,7 @@
         <v>45567</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         <v>44466.34962962963</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50502,7 +50502,7 @@
         <v>45530.33202546297</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50559,7 +50559,7 @@
         <v>44910.41346064815</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50616,7 +50616,7 @@
         <v>45483.82834490741</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50673,7 +50673,7 @@
         <v>45698.52806712963</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50730,7 +50730,7 @@
         <v>45271.66576388889</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50787,7 +50787,7 @@
         <v>45224.60075231481</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50849,7 +50849,7 @@
         <v>45113.56574074074</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50906,7 +50906,7 @@
         <v>44540</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50963,7 +50963,7 @@
         <v>44916.55414351852</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51020,7 +51020,7 @@
         <v>45149.60917824074</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51077,7 +51077,7 @@
         <v>45482.52887731481</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51134,7 +51134,7 @@
         <v>44879.62173611111</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51191,7 +51191,7 @@
         <v>45700.68672453704</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51248,7 +51248,7 @@
         <v>44603</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51305,7 +51305,7 @@
         <v>45147.67172453704</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51362,7 +51362,7 @@
         <v>44959.66407407408</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>45171.77335648148</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45698.53336805556</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45113.43921296296</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>44967.45122685185</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>44963.44769675926</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45720.44217592593</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>44909</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45747.43196759259</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45747.42633101852</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45747.42958333333</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45699.60055555555</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>44784.62724537037</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52103,7 +52103,7 @@
         <v>45243.84869212963</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52160,7 +52160,7 @@
         <v>44643</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52217,7 +52217,7 @@
         <v>45761.35990740741</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52274,7 +52274,7 @@
         <v>44964.44356481481</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45238.4328587963</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>44893</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45658.80232638889</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45658.80827546296</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45572.48293981481</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45169</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>44867</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>44745.84396990741</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45630.45069444444</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45533.56108796296</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45533.58302083334</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45124</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>44431</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45071</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>44410</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53305,7 +53305,7 @@
         <v>45481.58048611111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53362,7 +53362,7 @@
         <v>45111.48787037037</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53419,7 +53419,7 @@
         <v>45391.41976851852</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53476,7 +53476,7 @@
         <v>45786.52996527778</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53533,7 +53533,7 @@
         <v>45786.52878472222</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53590,7 +53590,7 @@
         <v>45463</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53647,7 +53647,7 @@
         <v>45630.47564814815</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53704,7 +53704,7 @@
         <v>45698.69016203703</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53761,7 +53761,7 @@
         <v>45726.62721064815</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53818,7 +53818,7 @@
         <v>45791.89865740741</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         <v>45796</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>45527.68784722222</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45603.74959490741</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54046,7 +54046,7 @@
         <v>45715.44159722222</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54103,7 +54103,7 @@
         <v>44992.4255787037</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54160,7 +54160,7 @@
         <v>45574.49298611111</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54217,7 +54217,7 @@
         <v>45401.53033564815</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54274,7 +54274,7 @@
         <v>45635.66409722222</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54331,7 +54331,7 @@
         <v>45804.39141203704</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54388,7 +54388,7 @@
         <v>45804.6953587963</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54450,7 +54450,7 @@
         <v>45804.708125</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54512,7 +54512,7 @@
         <v>45805.39247685186</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54569,7 +54569,7 @@
         <v>45805.52983796296</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         <v>45804.44519675926</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54683,7 +54683,7 @@
         <v>45805</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -575,7 +575,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>44811</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45314</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45755</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45377.54726851852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45301.67922453704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45748</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45678</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>45926.90006944445</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45121.60543981481</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>45987</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45971</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44811</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45979.35256944445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45742</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>45020</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44424</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44426.64793981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44386</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44943</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45896.86820601852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>45908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45960</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>45072</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>45008.60878472222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>45760.34877314815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45048</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45786.52827546297</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>44371</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45713</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45104</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>45224</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>45821</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>45168</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>45168</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>45649</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>45077</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>45125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45959.57126157408</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>45959.56684027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45399.71412037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45971.43178240741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45979.37598379629</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44403</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44377.61104166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45574.42767361111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>45667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>44281.79269675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44287.33261574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44270.67071759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44490.38613425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44447</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44375.39033564815</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44350</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>44614</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44670</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44670</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44481.47483796296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44307</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44350</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44327.47658564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44406</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>44509</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>44480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44585.51829861111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44824.53434027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>44418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44785.40800925926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>44826.68010416667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44862</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44578.47597222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44516.59703703703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44603</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44404.87505787037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44483.58295138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44542.8859375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44354</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44512.70245370371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44790</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>44530.38055555556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>44261</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>44588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44588</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>44790.47628472222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44312</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44475</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44385</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44410.71038194445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44279.33400462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44670</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44365</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44273</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44301.36048611111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44729.28226851852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44271.37226851852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>44340.54472222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44340</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44774</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44733</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44733</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44371.62743055556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44386.40783564815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44480</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44337</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44463.29439814815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44377</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44379</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44480</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44634.69703703704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44340.58002314815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44769.45422453704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44612.86762731482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44819</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44270</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44341</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44447.34237268518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44294</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44525.63913194444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44662</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44279.64934027778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44564</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44379</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44284.44574074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44636</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44817.57988425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44294</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44294</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44676.85248842592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44604</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44305</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44383</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44476</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44418</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44854</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44451.8375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44823</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44384</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44790.48503472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44620</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44854.59157407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44266.7240625</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44270.49743055556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44722.48768518519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44305.40046296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>44447</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44824</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44369</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44742</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44375.38789351852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44386</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44427</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44851.95016203704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44644</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44832.67608796297</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44621</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>44876.48346064815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>44733.43092592592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>44609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44284.42348379629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44421</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44273</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44278.63479166666</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44612.86554398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44470.44232638889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44466.34726851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44866.81100694444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44634</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44608.50458333334</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44292</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44588.37998842593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45632.72635416667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45033.76043981482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45196.57247685185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44994.40635416667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44607</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>45624.60141203704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45617.47570601852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44991.89657407408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45114.55136574074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44903</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>45411.47335648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44991.30547453704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44991</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44879.55940972222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45764.44931712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45054.6750462963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45735.56751157407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45728.54832175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>44693.62822916666</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45048.59699074074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45111.48395833333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>45261.44914351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>44981.58834490741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44910.54231481482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>45346.67184027778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>45732.79925925926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45147.67096064815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45610.59094907407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44992</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45394.66887731481</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>45052</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44302</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45588.66457175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45453.36067129629</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45299.62576388889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45623.9525462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>45020</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44564.62598379629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>45552.36759259259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44992.62498842592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>45030.71012731481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45607.56773148148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45674.71810185185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45237.63225694445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45237.64408564815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45539.38744212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45434.55831018519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>45434.56398148148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45533.63056712963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45345.83557870371</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45224.64659722222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>45482.49870370371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>45097.40524305555</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44931</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44965.4815162037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>45328.38755787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45558.44914351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45309.59487268519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45254.62489583333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45350.53306712963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>44861</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16592,7 +16592,7 @@
         <v>45063.49936342592</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
         <v>45300.3794212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>45145</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>45485.45778935185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>45187.60813657408</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45163.41376157408</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45108.703125</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>44510.52157407408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>45761.39600694444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44981.64725694444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>44553</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45217.47834490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45275.41833333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44566</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44488.35878472222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45552.36484953704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45168.89298611111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>44918</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45187</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45460.62172453704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45450.51092592593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>44754</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45163</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44988</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44769.45805555556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45128.58414351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45171.96248842592</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45128.37305555555</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44720.53898148148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>45189</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>45650.37370370371</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45540.50098379629</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>45425.57538194444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>45475.48303240741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>45735.58024305556</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>45232</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>45818.58993055556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>45818.58769675926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>45818.595625</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>45041.63380787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45818.59261574074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>45818.5862037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45002</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45884.50613425926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45819.61060185185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45482.54844907407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>44867</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45820.33708333333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45820.34128472222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45236</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45121</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44967.44255787037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45820.33930555556</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>44903.33363425926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45174.31395833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>44943.57309027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45825.58672453704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45825.5796875</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45317.40372685185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20161,7 +20161,7 @@
         <v>44857.65989583333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20218,7 +20218,7 @@
         <v>44965</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>45359.44837962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>45891.50216435185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>45891.50986111111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>45891</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44944.71386574074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>44944.72100694444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45467.74417824074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45446.36482638889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>44312</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>45891.50525462963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45000.47998842593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45891</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45827</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45440.28329861111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45827</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45495</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45554.63225694445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45257.67958333333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45831</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45897.64208333333</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>44595.583125</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>45897.63520833333</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>44999.35858796296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>45301</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45833.64563657407</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>45833.64814814815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>45832.46146990741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>45833.64237268519</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>45898.58861111111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>44789</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>45832.34540509259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>45901.6327662037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>45897.88836805556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45901.63219907408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45897.88706018519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45897.89737268518</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45834.65040509259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45709.62280092593</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45845</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45835.44709490741</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45835.48267361111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45835.48445601852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45835.48862268519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>44958.61047453704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45834.64667824074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45219.40528935185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45835.44732638889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45835.36229166666</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45835.45099537037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45835.4924537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>45834.65197916667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44663</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45567</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45902.47164351852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45623.95947916667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45041</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45434.55471064815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45434.56291666667</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>45201.39996527778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>45086.63334490741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45908.57716435185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>45908</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45837.77701388889</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45840.59474537037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>45908</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24015,7 +24015,7 @@
         <v>45841.70569444444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24072,7 +24072,7 @@
         <v>45841.70868055556</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24129,7 +24129,7 @@
         <v>44599</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>44944.73487268519</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>45832.46649305556</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>45330</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45330</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45841.7072337963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45845.42015046296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45911.47138888889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>45811.45460648148</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>45911.67798611111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>45250.5278587963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>45070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>45225.60192129629</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>45700.68289351852</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>45845.43803240741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>45845.49414351852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44539</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>45820.03976851852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>45915.56430555556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>45299.47513888889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44910</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45915.55950231481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44598.7384837963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44848.59133101852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>45847.91280092593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45916.7103587963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>45559.38876157408</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>45917.67054398148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>45916.41019675926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45224</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45903.38800925926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45415.48979166667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44542.90072916666</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>45853.87112268519</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>45853.87599537037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45853.88070601852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45749.60487268519</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45755.44333333334</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>45919.42387731482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45858.60641203704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>44984.45895833334</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45858.66019675926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>45446.36865740741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45245.63574074074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45921.95611111111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45732.76936342593</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45707.3793287037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45921.96395833333</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45924.57697916667</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45925.50075231482</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>45867.51630787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45867.63094907408</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>45867.64663194444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45867.56320601852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>45867.68625</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27274,7 +27274,7 @@
         <v>44578.32717592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>45867.50792824074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>45925.49670138889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>45769</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         <v>45525.41762731481</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44964.5115162037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27616,7 +27616,7 @@
         <v>45867.69346064814</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>45929.3672337963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>45869.62276620371</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>45923</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45121.58699074074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>45870.51708333333</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>45870.52111111111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>45211.52642361111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>45923</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>45923</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>45075.43059027778</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44630</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>45870.52142361111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>45371.45865740741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>45100.4062962963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45870.51958333333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45870.52005787037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44795</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45930.39769675926</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>45875.45716435185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>45875.47454861111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45280.66769675926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>45112.33599537037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>45111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>45875.42716435185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>45933.60982638889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>45874.57109953704</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>45932.59597222223</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>45202.4209837963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>45632.36706018518</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>45632.44886574074</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>45880.38380787037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45245.36174768519</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>44585.50431712963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>45932.58896990741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>45936.65121527778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>45170</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29735,7 +29735,7 @@
         <v>45936.63373842592</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29792,7 +29792,7 @@
         <v>45934.40527777778</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45880.51550925926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>45934.41387731482</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>45935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>45881.59877314815</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45881</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44867</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44732.3659837963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45635.4874537037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45483.82479166667</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45887.68759259259</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45713.92412037037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45446.36774305555</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45615.48927083334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>45729.36868055556</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>45940.54104166666</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30714,7 +30714,7 @@
         <v>44984</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30771,7 +30771,7 @@
         <v>44984</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
         <v>45945.50736111111</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45018</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         <v>45944.45962962963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30999,7 +30999,7 @@
         <v>45105</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>44788</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>44258</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31170,7 +31170,7 @@
         <v>45070.3665625</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31227,7 +31227,7 @@
         <v>45028</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31284,7 +31284,7 @@
         <v>45698.53725694444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31341,7 +31341,7 @@
         <v>45456.59289351852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31398,7 +31398,7 @@
         <v>45947.44685185186</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>45481.55984953704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>44964.50894675926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31569,7 +31569,7 @@
         <v>45257.70313657408</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         <v>45533.60232638889</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>45533.60770833334</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         <v>45001.59209490741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31807,7 +31807,7 @@
         <v>45569.44295138889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31864,7 +31864,7 @@
         <v>44879</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>45475.49018518518</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>44510.60921296296</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44961</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44984</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45090.38012731481</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45952.58061342593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>45174</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45952.58194444444</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>45091.67936342592</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>45954.44543981482</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45954.42326388889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>45646.38200231481</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>45954.51412037037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45954.44707175926</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>45954.45947916667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>45954.47172453703</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>45954.468125</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44392</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>45959.55577546296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>45959.58387731481</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45959.56247685185</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45959.55918981481</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45958.60146990741</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45959.55284722222</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>45959.5787037037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>45961.43738425926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>45545.49508101852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>45361.87975694444</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>45961.44951388889</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>45961.46740740741</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44896</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>45960</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33760,7 +33760,7 @@
         <v>45961.4569212963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33817,7 +33817,7 @@
         <v>45699.44291666667</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33874,7 +33874,7 @@
         <v>45961.47650462963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         <v>45114.49505787037</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33988,7 +33988,7 @@
         <v>45111.48225694444</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34045,7 +34045,7 @@
         <v>45111.48636574074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>45960</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>45098.30535879629</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34221,7 +34221,7 @@
         <v>45964.62671296296</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34278,7 +34278,7 @@
         <v>45154.49831018518</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34335,7 +34335,7 @@
         <v>45964.62486111111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>45722.48634259259</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>45481.56722222222</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>45453.36854166666</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44992.34151620371</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>44502</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>45378.32185185186</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34739,7 +34739,7 @@
         <v>45726.44471064815</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>45377.40043981482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>45966.56826388889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34910,7 +34910,7 @@
         <v>45219.69356481481</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>45966.64881944445</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>45211.55472222222</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35086,7 +35086,7 @@
         <v>45971</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44977</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>45498.673125</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>45971</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>45971</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>45971.43350694444</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44825.4336574074</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>45215.60199074074</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>45533.55362268518</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>45754.33641203704</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>45415.57682870371</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35713,7 +35713,7 @@
         <v>45187.42854166667</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>44475</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35827,7 +35827,7 @@
         <v>44839.4528125</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35884,7 +35884,7 @@
         <v>44875.27736111111</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35941,7 +35941,7 @@
         <v>45533.54429398148</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35998,7 +35998,7 @@
         <v>44973.43075231482</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36055,7 +36055,7 @@
         <v>45106.2610300926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36112,7 +36112,7 @@
         <v>45705.74418981482</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36169,7 +36169,7 @@
         <v>45301.68237268519</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         <v>45722.48915509259</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>45106</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>45981</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45743.41148148148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45569.44684027778</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45361.90282407407</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>44952.35775462963</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45548</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>45985.69509259259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>45985.68671296296</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
         <v>45985.69153935185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>45985.70513888889</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>45394.50028935185</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>45985.61635416667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>45985.61501157407</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45985.62168981481</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
         <v>45138</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45985.69008101852</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45987.36275462963</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37366,7 +37366,7 @@
         <v>45317</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45987.4243287037</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>45384.66917824074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45698.51711805556</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45513.55840277778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37656,7 +37656,7 @@
         <v>45513.56527777778</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37713,7 +37713,7 @@
         <v>45988.36790509259</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>45988.36243055556</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45988.36508101852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45637.66542824074</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45988.41725694444</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45639.56185185185</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>46034</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>45992.30569444445</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>45153.32778935185</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>46034</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>45635.66695601852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>45211.541875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>46034.65589120371</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>44890</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         <v>44278.54855324074</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38583,7 +38583,7 @@
         <v>45278</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>46035.44689814815</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>45029</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>45588.65545138889</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>46037.42219907408</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38873,7 +38873,7 @@
         <v>46037.42511574074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38930,7 +38930,7 @@
         <v>46037.42825231481</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>45699.45671296296</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>45086</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>45128</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39158,7 +39158,7 @@
         <v>45121.5965162037</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>45121.59954861111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>45121.6096875</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44635</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>45994.46428240741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>45994</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>45343.68038194445</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>45581.57958333333</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>45539.65212962963</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>45301.67736111111</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44546</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>45768.65611111111</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44377</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>45369.62780092593</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44377.49684027778</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45526.3865625</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45755.64450231481</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>46043.6360300926</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40209,7 +40209,7 @@
         <v>46043.63940972222</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40266,7 +40266,7 @@
         <v>45518.40657407408</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40323,7 +40323,7 @@
         <v>45741.37270833334</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40380,7 +40380,7 @@
         <v>45622</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>45574.35809027778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>45533.61996527778</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40556,7 +40556,7 @@
         <v>44588</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40613,7 +40613,7 @@
         <v>46044.34563657407</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40670,7 +40670,7 @@
         <v>46002.58680555555</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40732,7 +40732,7 @@
         <v>46002.68768518518</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>45582.41200231481</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40851,7 +40851,7 @@
         <v>45736.50743055555</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40908,7 +40908,7 @@
         <v>44833.60123842592</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40965,7 +40965,7 @@
         <v>46002.58822916666</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44270.39765046296</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>44897</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>45498</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>46041</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>46041</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45009.4671875</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>44999.86172453704</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>44999.8625</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45148</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44453.56578703703</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45581.57016203704</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45581.58418981481</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45495</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45618.56787037037</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45699.45392361111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45259.51916666667</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>45259.52020833334</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42068,7 +42068,7 @@
         <v>45562.46342592593</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42125,7 +42125,7 @@
         <v>45086</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42182,7 +42182,7 @@
         <v>44517</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42239,7 +42239,7 @@
         <v>45533.38870370371</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42296,7 +42296,7 @@
         <v>44992</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42358,7 +42358,7 @@
         <v>45658.78774305555</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42415,7 +42415,7 @@
         <v>45121.61318287037</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42477,7 +42477,7 @@
         <v>45275.32266203704</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42534,7 +42534,7 @@
         <v>44746.38834490741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42591,7 +42591,7 @@
         <v>44598</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42648,7 +42648,7 @@
         <v>45079.87827546296</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42705,7 +42705,7 @@
         <v>44579.62225694444</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42762,7 +42762,7 @@
         <v>44495</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42819,7 +42819,7 @@
         <v>45090.89653935185</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42876,7 +42876,7 @@
         <v>45090.89880787037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42933,7 +42933,7 @@
         <v>44638.55256944444</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44600</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>46057.38412037037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>46014.62724537037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>46057.69520833333</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>46003</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43275,7 +43275,7 @@
         <v>44451</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>45245.5735300926</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>45415.47848379629</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>45621.46103009259</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44861.52505787037</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>45308.61152777778</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>46018.67197916667</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>46018.46483796297</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>46020.43715277778</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>46020.44902777778</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>45063.508125</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43902,7 +43902,7 @@
         <v>44895.62296296296</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43959,7 +43959,7 @@
         <v>44452</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45009</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44073,7 +44073,7 @@
         <v>45379</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44130,7 +44130,7 @@
         <v>46020.41998842593</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44187,7 +44187,7 @@
         <v>44820</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44244,7 +44244,7 @@
         <v>45215.5959375</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44301,7 +44301,7 @@
         <v>45215.59743055556</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44358,7 +44358,7 @@
         <v>45351.6062962963</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44415,7 +44415,7 @@
         <v>45674.74094907408</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44472,7 +44472,7 @@
         <v>45539.66027777778</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44529,7 +44529,7 @@
         <v>45565.40657407408</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44586,7 +44586,7 @@
         <v>45482.54108796296</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44643,7 +44643,7 @@
         <v>45195.58452546296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45026.82216435186</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45266.32614583334</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>46066.45273148148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>46065.7372337963</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>44440</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45554.62944444444</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45632.37459490741</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>46029.47912037037</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>44803.59118055556</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45567.42011574074</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>44587.48847222222</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>45110.4275</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>46028.69432870371</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>46028.68663194445</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45503.5658912037</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>44956</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>44270.38002314815</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45679,7 +45679,7 @@
         <v>44596</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45736,7 +45736,7 @@
         <v>45113.41633101852</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45793,7 +45793,7 @@
         <v>45666</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45850,7 +45850,7 @@
         <v>44918.50106481482</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>45027.59450231482</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45969,7 +45969,7 @@
         <v>45224.6515162037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45377</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45106.25025462963</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>46030.380625</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45114.47895833333</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>46030</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45349.54434027777</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45334.78826388889</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45114.58148148148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>44600</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46544,7 +46544,7 @@
         <v>45581.57333333333</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46601,7 +46601,7 @@
         <v>45359.45038194444</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>44895.46524305556</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>44587</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46772,7 +46772,7 @@
         <v>45569.45017361111</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46829,7 +46829,7 @@
         <v>45569.47494212963</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46886,7 +46886,7 @@
         <v>45588.67070601852</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46943,7 +46943,7 @@
         <v>45355.54138888889</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47000,7 +47000,7 @@
         <v>44949</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47057,7 +47057,7 @@
         <v>45660</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47114,7 +47114,7 @@
         <v>45090</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47171,7 +47171,7 @@
         <v>44467.83386574074</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47228,7 +47228,7 @@
         <v>44340</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47285,7 +47285,7 @@
         <v>44790.49040509259</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47342,7 +47342,7 @@
         <v>44784.42528935185</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47399,7 +47399,7 @@
         <v>44935</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>44852</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45100.85270833333</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>45517.8162037037</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44578.62943287037</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>44994.46908564815</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47741,7 +47741,7 @@
         <v>44900.57393518519</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47798,7 +47798,7 @@
         <v>44440.60415509259</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47855,7 +47855,7 @@
         <v>45201</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47912,7 +47912,7 @@
         <v>44966</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>45323.53744212963</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48026,7 +48026,7 @@
         <v>45308.59001157407</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48083,7 +48083,7 @@
         <v>45111.30824074074</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48140,7 +48140,7 @@
         <v>45086.63194444445</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48197,7 +48197,7 @@
         <v>45196</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48254,7 +48254,7 @@
         <v>45320.89128472222</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48311,7 +48311,7 @@
         <v>44987.54104166666</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48368,7 +48368,7 @@
         <v>45208</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48425,7 +48425,7 @@
         <v>45001.43854166667</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48482,7 +48482,7 @@
         <v>44585.51060185185</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48539,7 +48539,7 @@
         <v>45260.4716550926</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48596,7 +48596,7 @@
         <v>44943.62954861111</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48653,7 +48653,7 @@
         <v>45371.36359953704</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48710,7 +48710,7 @@
         <v>44938</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48772,7 +48772,7 @@
         <v>44949</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48834,7 +48834,7 @@
         <v>45020</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48891,7 +48891,7 @@
         <v>45568.30189814815</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48948,7 +48948,7 @@
         <v>44894.49538194444</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         <v>44790.45876157407</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49062,7 +49062,7 @@
         <v>44790.49523148148</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49119,7 +49119,7 @@
         <v>45211.43555555555</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49176,7 +49176,7 @@
         <v>44893</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49233,7 +49233,7 @@
         <v>45174.40454861111</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49290,7 +49290,7 @@
         <v>45713.45311342592</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49347,7 +49347,7 @@
         <v>44994.42113425926</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49404,7 +49404,7 @@
         <v>45176.72427083334</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49461,7 +49461,7 @@
         <v>45759.38987268518</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49518,7 +49518,7 @@
         <v>45061</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49580,7 +49580,7 @@
         <v>44310</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49637,7 +49637,7 @@
         <v>45096.45247685185</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49694,7 +49694,7 @@
         <v>45391.41310185185</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49751,7 +49751,7 @@
         <v>45163.63621527778</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49813,7 +49813,7 @@
         <v>45093.62777777778</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49875,7 +49875,7 @@
         <v>45630.35827546296</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49932,7 +49932,7 @@
         <v>44431.84840277778</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49989,7 +49989,7 @@
         <v>45671.46746527778</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50046,7 +50046,7 @@
         <v>45110.4184375</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50103,7 +50103,7 @@
         <v>45182.78834490741</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50160,7 +50160,7 @@
         <v>45761.4437962963</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50217,7 +50217,7 @@
         <v>45128.9325</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50274,7 +50274,7 @@
         <v>45128.93540509259</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50331,7 +50331,7 @@
         <v>44999.36081018519</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50388,7 +50388,7 @@
         <v>45567</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50445,7 +50445,7 @@
         <v>44466.34962962963</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50502,7 +50502,7 @@
         <v>45530.33202546297</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50559,7 +50559,7 @@
         <v>44910.41346064815</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50616,7 +50616,7 @@
         <v>45483.82834490741</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50673,7 +50673,7 @@
         <v>45698.52806712963</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50730,7 +50730,7 @@
         <v>45271.66576388889</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50787,7 +50787,7 @@
         <v>45224.60075231481</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50849,7 +50849,7 @@
         <v>45113.56574074074</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50906,7 +50906,7 @@
         <v>44540</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50963,7 +50963,7 @@
         <v>44916.55414351852</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51020,7 +51020,7 @@
         <v>45149.60917824074</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51077,7 +51077,7 @@
         <v>45482.52887731481</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51134,7 +51134,7 @@
         <v>44879.62173611111</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51191,7 +51191,7 @@
         <v>45700.68672453704</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51248,7 +51248,7 @@
         <v>44603</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51305,7 +51305,7 @@
         <v>45147.67172453704</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51362,7 +51362,7 @@
         <v>44959.66407407408</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51419,7 +51419,7 @@
         <v>45171.77335648148</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51476,7 +51476,7 @@
         <v>45698.53336805556</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51533,7 +51533,7 @@
         <v>45113.43921296296</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51590,7 +51590,7 @@
         <v>44967.45122685185</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51647,7 +51647,7 @@
         <v>44963.44769675926</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51704,7 +51704,7 @@
         <v>45720.44217592593</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51761,7 +51761,7 @@
         <v>44909</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51818,7 +51818,7 @@
         <v>45747.43196759259</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51875,7 +51875,7 @@
         <v>45747.42633101852</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51932,7 +51932,7 @@
         <v>45747.42958333333</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51989,7 +51989,7 @@
         <v>45699.60055555555</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         <v>44784.62724537037</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52103,7 +52103,7 @@
         <v>45243.84869212963</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52160,7 +52160,7 @@
         <v>44643</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52217,7 +52217,7 @@
         <v>45761.35990740741</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52274,7 +52274,7 @@
         <v>44964.44356481481</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52331,7 +52331,7 @@
         <v>45238.4328587963</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52388,7 +52388,7 @@
         <v>44893</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45658.80232638889</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45658.80827546296</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45572.48293981481</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45147</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45169</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52730,7 +52730,7 @@
         <v>44867</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52787,7 +52787,7 @@
         <v>44745.84396990741</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52844,7 +52844,7 @@
         <v>45630.45069444444</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52901,7 +52901,7 @@
         <v>45533.56108796296</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52958,7 +52958,7 @@
         <v>45533.58302083334</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45124</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>44431</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45071</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>44410</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53305,7 +53305,7 @@
         <v>45481.58048611111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53362,7 +53362,7 @@
         <v>45111.48787037037</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53419,7 +53419,7 @@
         <v>45391.41976851852</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53476,7 +53476,7 @@
         <v>45786.52996527778</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53533,7 +53533,7 @@
         <v>45786.52878472222</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53590,7 +53590,7 @@
         <v>45463</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53647,7 +53647,7 @@
         <v>45630.47564814815</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53704,7 +53704,7 @@
         <v>45698.69016203703</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53761,7 +53761,7 @@
         <v>45726.62721064815</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53818,7 +53818,7 @@
         <v>45791.89865740741</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         <v>45796</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>45527.68784722222</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45603.74959490741</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54046,7 +54046,7 @@
         <v>45715.44159722222</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54103,7 +54103,7 @@
         <v>44992.4255787037</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54160,7 +54160,7 @@
         <v>45574.49298611111</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54217,7 +54217,7 @@
         <v>45401.53033564815</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54274,7 +54274,7 @@
         <v>45635.66409722222</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54331,7 +54331,7 @@
         <v>45804.39141203704</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54388,7 +54388,7 @@
         <v>45804.6953587963</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54450,7 +54450,7 @@
         <v>45804.708125</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54512,7 +54512,7 @@
         <v>45805.39247685186</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54569,7 +54569,7 @@
         <v>45805.52983796296</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         <v>45804.44519675926</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54683,7 +54683,7 @@
         <v>45805</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -575,7 +575,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>44811</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>44811</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45314</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>45301.67922453704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45755</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45377.54726851852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45121.60543981481</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45748</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45678</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>45926.90006944445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>45987</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>45971</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44811</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45979.35256944445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45742</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>45020</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>44424</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44426.64793981481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>44386</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44943</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45760.34877314815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>45896.86820601852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>45908</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45072</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45048</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45960</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45008.60878472222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45786.52827546297</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>44371</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44403</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45667</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>45649</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45821</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45168</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>45168</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>45077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45959.56684027778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>45959.57126157408</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>45971.43178240741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>45399.71412037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>45979.37598379629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>45104</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45574.42767361111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>45713</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45224</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>44377.61104166666</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5263,7 +5263,7 @@
         <v>44281.79269675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>44270.67071759259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44287.33261574074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44481.47483796296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>44490.38613425926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>44447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44350</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>44375.39033564815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>44614</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>44670</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>44670</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44307</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>44350</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>44327.47658564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44509</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>44406</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>44480</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>44585.51829861111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>44824.53434027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>44418</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44785.40800925926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>44826.68010416667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44578.47597222222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>44516.59703703703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44862</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44603</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44588</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44404.87505787037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44483.58295138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44542.8859375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44354</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44512.70245370371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44790</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>44261</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>44530.38055555556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>44588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44588</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>44790.47628472222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44475</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44312</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44385</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44410.71038194445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44279.33400462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44670</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44365</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44273</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44301.36048611111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44729.28226851852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>44271.37226851852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>44340.54472222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>44340</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44774</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>44733</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44733</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44371.62743055556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44386.40783564815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44337</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44463.29439814815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44588</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>44377</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44379</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44508</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44634.69703703704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44480</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44340.58002314815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44769.45422453704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44612.86762731482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44819</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44270</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44341</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44447.34237268518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44294</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44480</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44662</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44525.63913194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44279.64934027778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44564</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44379</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>44284.44574074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>44636</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>44817.57988425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>44294</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44294</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44676.85248842592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44305</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44604</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44383</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44476</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44418</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44854</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44451.8375</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44823</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44384</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44790.48503472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44854.59157407407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44620</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44266.7240625</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44270.49743055556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44722.48768518519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>44305.40046296296</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>44447</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44824</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44369</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44742</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44375.38789351852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44386</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44427</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44851.95016203704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44644</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44832.67608796297</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44621</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>44876.48346064815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>44733.43092592592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>44609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>44284.42348379629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>44421</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44273</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44278.63479166666</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44470.44232638889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44612.86554398148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44466.34726851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44776</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44866.81100694444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44634</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44608.50458333334</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44817</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44292</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45483.82834490741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44377.49684027778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>44833.60123842592</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44466.34962962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>45105</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45215.59743055556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44278.54855324074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>45090.38012731481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44789</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45411.47335648148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45377.40043981482</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45698.51711805556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45425.57538194444</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>45211.43555555555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45100.4062962963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45097.40524305555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>45245.5735300926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>45090</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>45450.51092592593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>45749.60487268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44895.62296296296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45308.61152777778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45299.47513888889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45539.66027777778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45384.66917824074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45114.55136574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44992</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>44392</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>45266.32614583334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45317.40372685185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45257.70313657408</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45309.59487268519</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45359.44837962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44488.35878472222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45446.36774305555</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44467.83386574074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>45359.45038194444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>45482.52887731481</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45371.36359953704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45371.45865740741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45147.67096064815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45147.67172453704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45526.3865625</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45243.84869212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>44949</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44861.52505787037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45533.54429398148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45030.71012731481</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>45171.96248842592</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44938</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>45533.60232638889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>45483.82479166667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45498</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>45533.60770833334</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44879</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44510.52157407408</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44598</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45482.54108796296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>45618.56787037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45467.74417824074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45632.37459490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45086</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45378.32185185186</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>45498.673125</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45485.45778935185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>44893</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>45275.32266203704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>45540.50098379629</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>44630</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>44893</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44918.50106481482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>44994.40635416667</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>45574.35809027778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>45699.45671296296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>45559.38876157408</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>45804.44519675926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>45884.50613425926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>44587</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>45805.39247685186</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         <v>45805</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>44603</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>44999.86172453704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>44999.8625</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17861,7 +17861,7 @@
         <v>45805.52983796296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44964.50894675926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>45517.8162037037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>45518.40657407408</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44638.55256944444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>45666</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>45001.59209490741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44587.48847222222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45825.57805555555</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44918</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44959.66407407408</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44966</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44564.62598379629</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>45887.68759259259</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45495</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45026.82216435186</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44910.54231481482</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>45567.42011574074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>45554.62944444444</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45818.59261574074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>45818.5862037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45818.58993055556</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45891.50216435185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45567</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45891.50986111111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45818.58769675926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>45818.595625</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45145</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45820.33930555556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45632.72635416667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45891</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45891.50525462963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45820.33708333333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>45820.34128472222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45819.61060185185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>44475</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45202.4209837963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45891</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45825.5796875</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45825.58672453704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>44943.62954861111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>44944.73487268519</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45897.88706018519</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45897.89737268518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>45761.35990740741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>45898.58861111111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>45897.64208333333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45897.63520833333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>45897.88836805556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>45827</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>45394.50028935185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45581.58418981481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45901.6327662037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45901.63219907408</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>44867</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45581.57333333333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45827</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45533.63056712963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45588.67070601852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>45902.47164351852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45831</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>44784.42528935185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45832.34540509259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45832.46146990741</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45176.72427083334</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45833.64563657407</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45833.64814814815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45908.57716435185</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45569.45017361111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>44999.35858796296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45713.45311342592</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45834.64667824074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45908</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45709.62280092593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45834.65040509259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>45834.65197916667</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45170</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45735.58024305556</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>44746.38834490741</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>45833.64237268519</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>45835.36229166666</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>45835.4924537037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>45835.48862268519</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>45622</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>45562.46342592593</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>45908</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45434.55831018519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>45434.56398148148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>45837.77701388889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>45835.48267361111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>45835.48445601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>45075.43059027778</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>45835.45099537037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44784.62724537037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>45835.44709490741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>45835.44732638889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>45343.68038194445</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44270.39765046296</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>45840.59474537037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45121.61318287037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45845.42015046296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45832.46649305556</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45617.47570601852</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45841.70569444444</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45841.70868055556</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44981.58834490741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45841.7072337963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45911.67798611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>45567</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45820.03976851852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44994.42113425926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44958.61047453704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44965</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>45911.47138888889</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45334.78826388889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45845.43803240741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45845.49414351852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45811.45460648148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44973.43075231482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44340</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>45847.91280092593</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44977</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>45916.41019675926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>44964.44356481481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>45610.59094907407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25170,7 +25170,7 @@
         <v>45853.87112268519</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>45916.7103587963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         <v>45853.87599537037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>45853.88070601852</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>44894.49538194444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>44992</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25512,7 +25512,7 @@
         <v>45755.44333333334</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>45020</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>45915.55950231481</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>45915.56430555556</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>45858.66019675926</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25797,7 +25797,7 @@
         <v>45114.49505787037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25854,7 +25854,7 @@
         <v>45041</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>45858.60641203704</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45632.36706018518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26025,7 +26025,7 @@
         <v>45917.67054398148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45903.38800925926</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>44745.84396990741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45769</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45163.63621527778</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45615.48927083334</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>45921.95611111111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45921.96395833333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45919.42387731482</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>45867.63094907408</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45924.57697916667</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45867.69346064814</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45867.50792824074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45867.51630787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>45635.66695601852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>45568.30189814815</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>45033.76043981482</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45867.68625</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>45867.56320601852</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>45867.64663194444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>45869.62276620371</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>45699.45392361111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>45154.49831018518</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>45923</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>45923</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>45925.49670138889</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>45925.50075231482</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>45870.51708333333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>45870.52111111111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>45870.51958333333</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>45870.52005787037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>45870.52142361111</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>45630.35827546296</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>45923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>45929.3672337963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45930.39769675926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>45189</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>45658.80232638889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>45658.80827546296</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45063.49936342592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44769.45805555556</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>44546</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>45874.57109953704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>45224.60075231481</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>45646.38200231481</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>45875.45716435185</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>45875.47454861111</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>44377</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>44988</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28833,7 +28833,7 @@
         <v>45764.44931712963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45932.59597222223</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45875.42716435185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45880.51550925926</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>44270.38002314815</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>45880.38380787037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>45121</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>44502</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>45881</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>45881.59877314815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>45932.58896990741</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>45698.53336805556</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>45933.60982638889</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>45936.65121527778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>45935</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>45934.40527777778</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45934.41387731482</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45936.63373842592</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45732.76936342593</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45090.89653935185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>45090.89880787037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>45201.39996527778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44991.30547453704</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44991</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45113.41633101852</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45238.4328587963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45063.508125</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45219.40528935185</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45735.56751157407</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44440</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>45754.33641203704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>45114.47895833333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45482.49870370371</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>45482.54844907407</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45533.38870370371</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>45732.79925925926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>45111.30824074074</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>45940.54104166666</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44431.84840277778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44910.41346064815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44910</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44598.7384837963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44931</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45027.59450231482</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45112.33599537037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44440.60415509259</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45944.45962962963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45029</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44943.57309027778</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44451</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45945.50736111111</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>45346.67184027778</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>44966</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>45947.44685185186</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45054.6750462963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44903.33363425926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>44578.62943287037</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44867</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>44879.55940972222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44903</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45952.58194444444</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>44896</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>44890</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>45952.58061342593</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>44588.37998842593</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45954.45947916667</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>45954.47172453703</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>45954.44707175926</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>45361.90282407407</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>45224.6515162037</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>45954.51412037037</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44754</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>45106.25025462963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>45954.44543981482</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>45100.85270833333</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45415.57682870371</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44517</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>45108.703125</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>45110.4275</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45196</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>45954.468125</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44607</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44949</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>45958.60146990741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>45121.58699074074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33832,7 +33832,7 @@
         <v>45954.42326388889</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33889,7 +33889,7 @@
         <v>45569.44684027778</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33946,7 +33946,7 @@
         <v>45959.55284722222</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>45959.56247685185</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>45959.55918981481</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>45959.58387731481</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>45959.5787037037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>45391.41310185185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>45086.63194444445</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45086.63334490741</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>45086</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>45959.55577546296</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>45960</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>45961.46740740741</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>45961.47650462963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44720.53898148148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>45964.62671296296</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>45961.4569212963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>45961.44951388889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>45964.62486111111</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>44539</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45960</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45961.43738425926</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45966.56826388889</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44553</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44964.5115162037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45966.64881944445</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44867</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45096.45247685185</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45111.48395833333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45588.65545138889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44967.45122685185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45971.43350694444</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45581.57016203704</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>45971</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45481.55984953704</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45971</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45971</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>45539.38744212963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>45539.65212962963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>45000.47998842593</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45552.36759259259</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45098.30535879629</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>45113.56574074074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>45747.42633101852</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>45747.42958333333</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36464,7 +36464,7 @@
         <v>45726.44471064815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36521,7 +36521,7 @@
         <v>44788</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36578,7 +36578,7 @@
         <v>45581.57958333333</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36635,7 +36635,7 @@
         <v>45548</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36692,7 +36692,7 @@
         <v>45020</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36749,7 +36749,7 @@
         <v>45569.44295138889</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36806,7 +36806,7 @@
         <v>45415.48979166667</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36863,7 +36863,7 @@
         <v>45009</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>45111.48225694444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36977,7 +36977,7 @@
         <v>45111.48636574074</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37034,7 +37034,7 @@
         <v>45621.46103009259</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37091,7 +37091,7 @@
         <v>45114.58148148148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37148,7 +37148,7 @@
         <v>45981</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37205,7 +37205,7 @@
         <v>45460.62172453704</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37262,7 +37262,7 @@
         <v>45533.61996527778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45985.61635416667</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45985.68671296296</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45985.69153935185</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45985.70513888889</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>45632.44886574074</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45985.69509259259</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>45985.62168981481</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>45741.37270833334</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>45985.69008101852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45985.61501157407</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45552.36484953704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45988.36508101852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45988.36243055556</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45988.41725694444</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45987.4243287037</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>45988.36790509259</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45271.66576388889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45582.41200231481</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45987.36275462963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>44585.51060185185</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45572.48293981481</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45001.43854166667</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45182.78834490741</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45377</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45992.30569444445</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45994.46428240741</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45671.46746527778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44579.62225694444</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45994</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>44643</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45328.38755787037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45713.92412037037</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45071</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>44795</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>45168.89298611111</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39334,7 +39334,7 @@
         <v>45052</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39391,7 +39391,7 @@
         <v>46044.34563657407</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39448,7 +39448,7 @@
         <v>46002.68768518518</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39510,7 +39510,7 @@
         <v>46043.6360300926</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39567,7 +39567,7 @@
         <v>46043.63940972222</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39624,7 +39624,7 @@
         <v>45755.64450231481</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39681,7 +39681,7 @@
         <v>46002.58822916666</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>45623.95947916667</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44635</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>46002.58680555555</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>44595.583125</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45211.52642361111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45211.541875</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>45650.37370370371</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>46041</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>45195.58452546296</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>45351.6062962963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>45208</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>45729.36868055556</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>45163.41376157408</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>45434.56291666667</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>46041</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>45079.87827546296</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>45254.62489583333</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>45113.43921296296</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44825.4336574074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45128</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>45196.57247685185</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>45236</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>44663</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>45187</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>45187.42854166667</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>45707.3793287037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>45736.50743055555</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>46003</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>46014.62724537037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>45308.59001157407</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>45699.44291666667</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41639,7 +41639,7 @@
         <v>45174</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41696,7 +41696,7 @@
         <v>46057.69520833333</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41753,7 +41753,7 @@
         <v>45722.48634259259</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41810,7 +41810,7 @@
         <v>46057.38412037037</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41867,7 +41867,7 @@
         <v>45761.4437962963</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41924,7 +41924,7 @@
         <v>45299.62576388889</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>46020.43715277778</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>46020.44902777778</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42095,7 +42095,7 @@
         <v>45700.68289351852</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42152,7 +42152,7 @@
         <v>46018.46483796297</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42209,7 +42209,7 @@
         <v>45623.9525462963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42266,7 +42266,7 @@
         <v>44790.49523148148</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42323,7 +42323,7 @@
         <v>45260.4716550926</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42380,7 +42380,7 @@
         <v>46020.41998842593</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42437,7 +42437,7 @@
         <v>44820</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42494,7 +42494,7 @@
         <v>44693.62822916666</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>46018.67197916667</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>45245.63574074074</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>45280.66769675926</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>44956</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42789,7 +42789,7 @@
         <v>45317</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>45219.69356481481</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>45379</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>45225.60192129629</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>45237.63225694445</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>45237.64408564815</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>45768.65611111111</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>44732.3659837963</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>44790.49040509259</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>46066.45273148148</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>45323.53744212963</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>45533.55362268518</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>45763.59436342592</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>45355.54138888889</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>45361.87975694444</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45330</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>45330</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>44839.4528125</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>46065.7372337963</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>45217.47834490741</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44578.32717592592</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>44897</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>45747.43196759259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>46028.69432870371</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44162,7 +44162,7 @@
         <v>45091.67936342592</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44219,7 +44219,7 @@
         <v>45259.51916666667</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>45259.52020833334</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44343,7 +44343,7 @@
         <v>45349.54434027777</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>46028.68663194445</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>46029.47912037037</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45345.83557870371</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>46030.380625</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>44599</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45201</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>46030</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>45674.71810185185</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45588.66457175926</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45275.41833333333</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>44495</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>44848.59133101852</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>45440.28329861111</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>44790.45876157407</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>44861</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>44879.62173611111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45147</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>44987.54104166666</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>46034</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>46034</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45128.37305555555</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45597,7 +45597,7 @@
         <v>45481.56722222222</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45654,7 +45654,7 @@
         <v>44900.57393518519</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45711,7 +45711,7 @@
         <v>46034.65589120371</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45768,7 +45768,7 @@
         <v>45394.66887731481</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>46035.44689814815</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44857.65989583333</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44585.50431712963</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>44992.34151620371</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46058,7 +46058,7 @@
         <v>44542.90072916666</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46115,7 +46115,7 @@
         <v>44453.56578703703</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46172,7 +46172,7 @@
         <v>44431</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46229,7 +46229,7 @@
         <v>44566</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46286,7 +46286,7 @@
         <v>45743.41148148148</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46343,7 +46343,7 @@
         <v>45261.44914351852</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46400,7 +46400,7 @@
         <v>45048.59699074074</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46457,7 +46457,7 @@
         <v>45503.5658912037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46514,7 +46514,7 @@
         <v>44596</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46571,7 +46571,7 @@
         <v>44952.35775462963</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>45093.62777777778</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>45215.5959375</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>44992.62498842592</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>46080.57634259259</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>44967.44255787037</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>44600</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>46037.42825231481</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47032,7 +47032,7 @@
         <v>45187.60813657408</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47089,7 +47089,7 @@
         <v>46037.42219907408</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47146,7 +47146,7 @@
         <v>46037.42511574074</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47203,7 +47203,7 @@
         <v>44452</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47260,7 +47260,7 @@
         <v>45009.4671875</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47317,7 +47317,7 @@
         <v>45705.74418981482</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47374,7 +47374,7 @@
         <v>46079.43295138889</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47431,7 +47431,7 @@
         <v>44410</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47488,7 +47488,7 @@
         <v>45111</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47545,7 +47545,7 @@
         <v>44909</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47602,7 +47602,7 @@
         <v>45637.66542824074</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -47659,7 +47659,7 @@
         <v>44310</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -47716,7 +47716,7 @@
         <v>45041.63380787037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47773,7 +47773,7 @@
         <v>44961</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47830,7 +47830,7 @@
         <v>44916.55414351852</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47887,7 +47887,7 @@
         <v>45300.3794212963</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47944,7 +47944,7 @@
         <v>45245.36174768519</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48001,7 +48001,7 @@
         <v>44999.36081018519</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48058,7 +48058,7 @@
         <v>45495</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         <v>45128.9325</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48172,7 +48172,7 @@
         <v>45128.93540509259</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48229,7 +48229,7 @@
         <v>45320.89128472222</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>44613</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48343,7 +48343,7 @@
         <v>44992</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48400,7 +48400,7 @@
         <v>45028</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48457,7 +48457,7 @@
         <v>45453.36854166666</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48514,7 +48514,7 @@
         <v>45211.55472222222</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48576,7 +48576,7 @@
         <v>45639.56185185185</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -48633,7 +48633,7 @@
         <v>44540</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -48690,7 +48690,7 @@
         <v>45174.31395833333</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48747,7 +48747,7 @@
         <v>45446.36865740741</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48809,7 +48809,7 @@
         <v>44981.64725694444</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>45138</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>44895.46524305556</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>45674.74094907408</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49037,7 +49037,7 @@
         <v>45700.68672453704</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49094,7 +49094,7 @@
         <v>45163</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49151,7 +49151,7 @@
         <v>45453.36067129629</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49208,7 +49208,7 @@
         <v>44963.44769675926</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49265,7 +49265,7 @@
         <v>44944.71386574074</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49322,7 +49322,7 @@
         <v>44944.72100694444</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49379,7 +49379,7 @@
         <v>45698.53725694444</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49436,7 +49436,7 @@
         <v>45250.5278587963</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49493,7 +49493,7 @@
         <v>44803.59118055556</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49550,7 +49550,7 @@
         <v>45153.32778935185</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -49607,7 +49607,7 @@
         <v>45761.39600694444</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -49664,7 +49664,7 @@
         <v>45106</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -49721,7 +49721,7 @@
         <v>45106.2610300926</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49778,7 +49778,7 @@
         <v>45699.60055555555</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49835,7 +49835,7 @@
         <v>45658.78774305555</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49892,7 +49892,7 @@
         <v>45630.45069444444</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49949,7 +49949,7 @@
         <v>44302</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50006,7 +50006,7 @@
         <v>45224</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50063,7 +50063,7 @@
         <v>45224.64659722222</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50125,7 +50125,7 @@
         <v>45121.5965162037</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50187,7 +50187,7 @@
         <v>45121.59954861111</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45121.6096875</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50311,7 +50311,7 @@
         <v>45558.44914351852</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50368,7 +50368,7 @@
         <v>44984</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50425,7 +50425,7 @@
         <v>45624.60141203704</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50482,7 +50482,7 @@
         <v>45434.55471064815</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50544,7 +50544,7 @@
         <v>44312</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         <v>44984.45895833334</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -50658,7 +50658,7 @@
         <v>44984</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -50715,7 +50715,7 @@
         <v>45698.52806712963</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50772,7 +50772,7 @@
         <v>45350.53306712963</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50829,7 +50829,7 @@
         <v>45660</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50886,7 +50886,7 @@
         <v>44258</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50943,7 +50943,7 @@
         <v>45369.62780092593</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51000,7 +51000,7 @@
         <v>45554.63225694445</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51057,7 +51057,7 @@
         <v>45722.48915509259</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51114,7 +51114,7 @@
         <v>45635.4874537037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51171,7 +51171,7 @@
         <v>45545.49508101852</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51228,7 +51228,7 @@
         <v>45569.47494212963</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51285,7 +51285,7 @@
         <v>45070.3665625</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51342,7 +51342,7 @@
         <v>45070</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51399,7 +51399,7 @@
         <v>45215.60199074074</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51456,7 +51456,7 @@
         <v>45720.44217592593</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51513,7 +51513,7 @@
         <v>44991.89657407408</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51570,7 +51570,7 @@
         <v>44994.46908564815</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>45149.60917824074</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>45169</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         <v>45278</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51803,7 +51803,7 @@
         <v>45456.59289351852</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51860,7 +51860,7 @@
         <v>45002</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51917,7 +51917,7 @@
         <v>45174.40454861111</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51974,7 +51974,7 @@
         <v>45533.56108796296</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52031,7 +52031,7 @@
         <v>45533.58302083334</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52093,7 +52093,7 @@
         <v>44965.4815162037</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52150,7 +52150,7 @@
         <v>44875.27736111111</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52207,7 +52207,7 @@
         <v>45171.77335648148</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52264,7 +52264,7 @@
         <v>45475.49018518518</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52321,7 +52321,7 @@
         <v>45061</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52383,7 +52383,7 @@
         <v>44510.60921296296</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52445,7 +52445,7 @@
         <v>45301</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>45301.68237268519</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52559,7 +52559,7 @@
         <v>45475.48303240741</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -52616,7 +52616,7 @@
         <v>45124</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -52673,7 +52673,7 @@
         <v>45446.36482638889</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -52735,7 +52735,7 @@
         <v>45759.38987268518</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52792,7 +52792,7 @@
         <v>45530.33202546297</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52849,7 +52849,7 @@
         <v>45128.58414351852</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52906,7 +52906,7 @@
         <v>44588</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52963,7 +52963,7 @@
         <v>45232</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53020,7 +53020,7 @@
         <v>45525.41762731481</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53077,7 +53077,7 @@
         <v>45565.40657407408</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53134,7 +53134,7 @@
         <v>45728.54832175926</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53191,7 +53191,7 @@
         <v>45257.67958333333</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53248,7 +53248,7 @@
         <v>45018</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53305,7 +53305,7 @@
         <v>45607.56773148148</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53362,7 +53362,7 @@
         <v>45301.67736111111</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53419,7 +53419,7 @@
         <v>45513.55840277778</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53476,7 +53476,7 @@
         <v>45513.56527777778</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53533,7 +53533,7 @@
         <v>45110.4184375</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -53590,7 +53590,7 @@
         <v>45415.47848379629</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -53647,7 +53647,7 @@
         <v>45391.41976851852</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -53704,7 +53704,7 @@
         <v>45111.48787037037</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -53761,7 +53761,7 @@
         <v>45481.58048611111</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -53818,7 +53818,7 @@
         <v>45463</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         <v>45630.47564814815</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>45786.52996527778</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45786.52878472222</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54046,7 +54046,7 @@
         <v>45726.62721064815</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54103,7 +54103,7 @@
         <v>45698.69016203703</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54160,7 +54160,7 @@
         <v>45791.89865740741</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54217,7 +54217,7 @@
         <v>45796</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54274,7 +54274,7 @@
         <v>45603.74959490741</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54331,7 +54331,7 @@
         <v>45527.68784722222</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54388,7 +54388,7 @@
         <v>45574.49298611111</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54445,7 +54445,7 @@
         <v>45715.44159722222</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54502,7 +54502,7 @@
         <v>44992.4255787037</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -54559,7 +54559,7 @@
         <v>45635.66409722222</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -54616,7 +54616,7 @@
         <v>45401.53033564815</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -54673,7 +54673,7 @@
         <v>45804.6953587963</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -54735,7 +54735,7 @@
         <v>45804.708125</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -54797,7 +54797,7 @@
         <v>45804.39141203704</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
